--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6841.683383772309</v>
+        <v>7057.261645604231</v>
       </c>
       <c r="AB2" t="n">
-        <v>9361.093039446339</v>
+        <v>9656.05672792648</v>
       </c>
       <c r="AC2" t="n">
-        <v>8467.683458137828</v>
+        <v>8734.496226173545</v>
       </c>
       <c r="AD2" t="n">
-        <v>6841683.383772309</v>
+        <v>7057261.645604231</v>
       </c>
       <c r="AE2" t="n">
-        <v>9361093.039446339</v>
+        <v>9656056.72792648</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.296371891132794e-07</v>
+        <v>9.077255294133113e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.26666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>8467683.458137829</v>
+        <v>8734496.226173546</v>
       </c>
     </row>
     <row r="3">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2323.837044712153</v>
+        <v>2436.070826053439</v>
       </c>
       <c r="AB3" t="n">
-        <v>3179.576365030231</v>
+        <v>3333.139576066367</v>
       </c>
       <c r="AC3" t="n">
-        <v>2876.122059315082</v>
+        <v>3015.029413017243</v>
       </c>
       <c r="AD3" t="n">
-        <v>2323837.044712153</v>
+        <v>2436070.826053439</v>
       </c>
       <c r="AE3" t="n">
-        <v>3179576.365030231</v>
+        <v>3333139.576066367</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.181663862793689e-06</v>
+        <v>1.703562740557883e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.71875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2876122.059315082</v>
+        <v>3015029.413017243</v>
       </c>
     </row>
     <row r="4">
@@ -5739,28 +5739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1796.371837183353</v>
+        <v>1899.801569020012</v>
       </c>
       <c r="AB4" t="n">
-        <v>2457.875197966512</v>
+        <v>2599.392320063157</v>
       </c>
       <c r="AC4" t="n">
-        <v>2223.299038722094</v>
+        <v>2351.309965306364</v>
       </c>
       <c r="AD4" t="n">
-        <v>1796371.837183353</v>
+        <v>1899801.569020012</v>
       </c>
       <c r="AE4" t="n">
-        <v>2457875.197966512</v>
+        <v>2599392.320063157</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.382400835041111e-06</v>
+        <v>1.992958090065e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.98541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2223299.038722094</v>
+        <v>2351309.965306364</v>
       </c>
     </row>
     <row r="5">
@@ -5845,28 +5845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1593.470111129938</v>
+        <v>1679.718537738752</v>
       </c>
       <c r="AB5" t="n">
-        <v>2180.256104987834</v>
+        <v>2298.265007286052</v>
       </c>
       <c r="AC5" t="n">
-        <v>1972.175522336456</v>
+        <v>2078.921820625867</v>
       </c>
       <c r="AD5" t="n">
-        <v>1593470.111129938</v>
+        <v>1679718.537738752</v>
       </c>
       <c r="AE5" t="n">
-        <v>2180256.104987834</v>
+        <v>2298265.007286051</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.489188235975059e-06</v>
+        <v>2.146909685878379e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.40833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1972175.522336456</v>
+        <v>2078921.820625867</v>
       </c>
     </row>
     <row r="6">
@@ -5951,28 +5951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1475.7239371555</v>
+        <v>1562.057615110334</v>
       </c>
       <c r="AB6" t="n">
-        <v>2019.150595161428</v>
+        <v>2137.276142112295</v>
       </c>
       <c r="AC6" t="n">
-        <v>1826.445696254879</v>
+        <v>1933.297506795002</v>
       </c>
       <c r="AD6" t="n">
-        <v>1475723.9371555</v>
+        <v>1562057.615110334</v>
       </c>
       <c r="AE6" t="n">
-        <v>2019150.595161428</v>
+        <v>2137276.142112295</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.556732725910057e-06</v>
+        <v>2.244286173394218e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.52291666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1826445.696254879</v>
+        <v>1933297.506795002</v>
       </c>
     </row>
     <row r="7">
@@ -6057,28 +6057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1398.561211693941</v>
+        <v>1484.809548794204</v>
       </c>
       <c r="AB7" t="n">
-        <v>1913.573150005731</v>
+        <v>2031.5819298344</v>
       </c>
       <c r="AC7" t="n">
-        <v>1730.944414285967</v>
+        <v>1837.690601794151</v>
       </c>
       <c r="AD7" t="n">
-        <v>1398561.211693941</v>
+        <v>1484809.548794204</v>
       </c>
       <c r="AE7" t="n">
-        <v>1913573.150005731</v>
+        <v>2031581.9298344</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.601519245154213e-06</v>
+        <v>2.308853304425239e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.97916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1730944.414285967</v>
+        <v>1837690.601794151</v>
       </c>
     </row>
     <row r="8">
@@ -6163,28 +6163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1350.286188313098</v>
+        <v>1436.534525413361</v>
       </c>
       <c r="AB8" t="n">
-        <v>1847.52113327234</v>
+        <v>1965.529913101009</v>
       </c>
       <c r="AC8" t="n">
-        <v>1671.196309325024</v>
+        <v>1777.942496833207</v>
       </c>
       <c r="AD8" t="n">
-        <v>1350286.188313098</v>
+        <v>1436534.525413361</v>
       </c>
       <c r="AE8" t="n">
-        <v>1847521.13327234</v>
+        <v>1965529.913101009</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.633467934777894e-06</v>
+        <v>2.354912593336619e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.60625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1671196.309325024</v>
+        <v>1777942.496833207</v>
       </c>
     </row>
     <row r="9">
@@ -6269,28 +6269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1310.380191829135</v>
+        <v>1387.995250642466</v>
       </c>
       <c r="AB9" t="n">
-        <v>1792.919988354668</v>
+        <v>1899.116335957799</v>
       </c>
       <c r="AC9" t="n">
-        <v>1621.806221045106</v>
+        <v>1717.867338280504</v>
       </c>
       <c r="AD9" t="n">
-        <v>1310380.191829135</v>
+        <v>1387995.250642466</v>
       </c>
       <c r="AE9" t="n">
-        <v>1792919.988354668</v>
+        <v>1899116.335957799</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.659727131728864e-06</v>
+        <v>2.392769543126794e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.31041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1621806.221045106</v>
+        <v>1717867.338280504</v>
       </c>
     </row>
     <row r="10">
@@ -6375,28 +6375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1278.249925696546</v>
+        <v>1355.864984509877</v>
       </c>
       <c r="AB10" t="n">
-        <v>1748.95794074476</v>
+        <v>1855.154288347891</v>
       </c>
       <c r="AC10" t="n">
-        <v>1582.039849557966</v>
+        <v>1678.100966793364</v>
       </c>
       <c r="AD10" t="n">
-        <v>1278249.925696546</v>
+        <v>1355864.984509877</v>
       </c>
       <c r="AE10" t="n">
-        <v>1748957.94074476</v>
+        <v>1855154.288347891</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.67825445402205e-06</v>
+        <v>2.41947972436764e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.10833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1582039.849557966</v>
+        <v>1678100.966793364</v>
       </c>
     </row>
     <row r="11">
@@ -6481,28 +6481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1240.624005637332</v>
+        <v>1326.787001883024</v>
       </c>
       <c r="AB11" t="n">
-        <v>1697.476496981303</v>
+        <v>1815.368509687774</v>
       </c>
       <c r="AC11" t="n">
-        <v>1535.471722532633</v>
+        <v>1642.112287008878</v>
       </c>
       <c r="AD11" t="n">
-        <v>1240624.005637332</v>
+        <v>1326787.001883024</v>
       </c>
       <c r="AE11" t="n">
-        <v>1697476.496981303</v>
+        <v>1815368.509687774</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.695322932040181e-06</v>
+        <v>2.444086741731254e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.92708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1535471.722532633</v>
+        <v>1642112.287008878</v>
       </c>
     </row>
     <row r="12">
@@ -6587,28 +6587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1216.355785344717</v>
+        <v>1294.056095504068</v>
       </c>
       <c r="AB12" t="n">
-        <v>1664.27164733863</v>
+        <v>1770.58463959441</v>
       </c>
       <c r="AC12" t="n">
-        <v>1505.435897136557</v>
+        <v>1601.602526622668</v>
       </c>
       <c r="AD12" t="n">
-        <v>1216355.785344717</v>
+        <v>1294056.095504069</v>
       </c>
       <c r="AE12" t="n">
-        <v>1664271.64733863</v>
+        <v>1770584.63959441</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.709181952653193e-06</v>
+        <v>2.464066798564957e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.78125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1505435.897136557</v>
+        <v>1601602.526622668</v>
       </c>
     </row>
     <row r="13">
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1195.22108708501</v>
+        <v>1272.921397244361</v>
       </c>
       <c r="AB13" t="n">
-        <v>1635.354220782616</v>
+        <v>1741.667213038397</v>
       </c>
       <c r="AC13" t="n">
-        <v>1479.278309185187</v>
+        <v>1575.444938671297</v>
       </c>
       <c r="AD13" t="n">
-        <v>1195221.08708501</v>
+        <v>1272921.397244361</v>
       </c>
       <c r="AE13" t="n">
-        <v>1635354.220782616</v>
+        <v>1741667.213038397</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.719393862578571e-06</v>
+        <v>2.478788945705581e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.67708333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1479278.309185187</v>
+        <v>1575444.938671297</v>
       </c>
     </row>
     <row r="14">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1172.60016839504</v>
+        <v>1250.300478554391</v>
       </c>
       <c r="AB14" t="n">
-        <v>1604.4032818665</v>
+        <v>1710.71627412228</v>
       </c>
       <c r="AC14" t="n">
-        <v>1451.281284439309</v>
+        <v>1547.447913925419</v>
       </c>
       <c r="AD14" t="n">
-        <v>1172600.16839504</v>
+        <v>1250300.478554392</v>
       </c>
       <c r="AE14" t="n">
-        <v>1604403.2818665</v>
+        <v>1710716.27412228</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.729459888076443e-06</v>
+        <v>2.493300776458481e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.57291666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1451281.284439309</v>
+        <v>1547447.913925419</v>
       </c>
     </row>
     <row r="15">
@@ -6905,28 +6905,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1154.378205822695</v>
+        <v>1232.078515982046</v>
       </c>
       <c r="AB15" t="n">
-        <v>1579.471188778764</v>
+        <v>1685.784181034544</v>
       </c>
       <c r="AC15" t="n">
-        <v>1428.728675323454</v>
+        <v>1524.895304809565</v>
       </c>
       <c r="AD15" t="n">
-        <v>1154378.205822695</v>
+        <v>1232078.515982046</v>
       </c>
       <c r="AE15" t="n">
-        <v>1579471.188778764</v>
+        <v>1685784.181034544</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.736316456169196e-06</v>
+        <v>2.503185646681472e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.50416666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1428728.675323454</v>
+        <v>1524895.304809565</v>
       </c>
     </row>
     <row r="16">
@@ -7011,28 +7011,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1135.327354364282</v>
+        <v>1212.857072323041</v>
       </c>
       <c r="AB16" t="n">
-        <v>1553.404973349115</v>
+        <v>1659.484553830048</v>
       </c>
       <c r="AC16" t="n">
-        <v>1405.150182910248</v>
+        <v>1501.105677113707</v>
       </c>
       <c r="AD16" t="n">
-        <v>1135327.354364282</v>
+        <v>1212857.072323041</v>
       </c>
       <c r="AE16" t="n">
-        <v>1553404.973349115</v>
+        <v>1659484.553830048</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.743464793116961e-06</v>
+        <v>2.513491149679908e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.43125</v>
       </c>
       <c r="AH16" t="n">
-        <v>1405150.182910248</v>
+        <v>1501105.677113707</v>
       </c>
     </row>
     <row r="17">
@@ -7117,28 +7117,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1118.924667073795</v>
+        <v>1196.454385032554</v>
       </c>
       <c r="AB17" t="n">
-        <v>1530.962092962779</v>
+        <v>1637.041673443711</v>
       </c>
       <c r="AC17" t="n">
-        <v>1384.849219529203</v>
+        <v>1480.804713732662</v>
       </c>
       <c r="AD17" t="n">
-        <v>1118924.667073795</v>
+        <v>1196454.385032554</v>
       </c>
       <c r="AE17" t="n">
-        <v>1530962.092962779</v>
+        <v>1637041.673443711</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.750467245637219e-06</v>
+        <v>2.523586336290622e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.3625</v>
       </c>
       <c r="AH17" t="n">
-        <v>1384849.219529203</v>
+        <v>1480804.713732662</v>
       </c>
     </row>
     <row r="18">
@@ -7223,28 +7223,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1103.942089592976</v>
+        <v>1181.471807551735</v>
       </c>
       <c r="AB18" t="n">
-        <v>1510.462269468853</v>
+        <v>1616.541849949786</v>
       </c>
       <c r="AC18" t="n">
-        <v>1366.305870417855</v>
+        <v>1462.261364621314</v>
       </c>
       <c r="AD18" t="n">
-        <v>1103942.089592976</v>
+        <v>1181471.807551735</v>
       </c>
       <c r="AE18" t="n">
-        <v>1510462.269468853</v>
+        <v>1616541.849949786</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.753822587469844e-06</v>
+        <v>2.528423613208255e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.32916666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1366305.870417855</v>
+        <v>1462261.364621314</v>
       </c>
     </row>
     <row r="19">
@@ -7329,28 +7329,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1098.067234202437</v>
+        <v>1175.596952161197</v>
       </c>
       <c r="AB19" t="n">
-        <v>1502.424033143191</v>
+        <v>1608.503613624125</v>
       </c>
       <c r="AC19" t="n">
-        <v>1359.034792085379</v>
+        <v>1454.990286288838</v>
       </c>
       <c r="AD19" t="n">
-        <v>1098067.234202438</v>
+        <v>1175596.952161197</v>
       </c>
       <c r="AE19" t="n">
-        <v>1502424.033143191</v>
+        <v>1608503.613624125</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.757177929302468e-06</v>
+        <v>2.533260890125888e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.29583333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1359034.792085379</v>
+        <v>1454990.286288838</v>
       </c>
     </row>
     <row r="20">
@@ -7435,28 +7435,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1102.150362085156</v>
+        <v>1179.680080043916</v>
       </c>
       <c r="AB20" t="n">
-        <v>1508.010748847216</v>
+        <v>1614.09032932815</v>
       </c>
       <c r="AC20" t="n">
-        <v>1364.088319483616</v>
+        <v>1460.043813687075</v>
       </c>
       <c r="AD20" t="n">
-        <v>1102150.362085156</v>
+        <v>1179680.080043916</v>
       </c>
       <c r="AE20" t="n">
-        <v>1508010.748847216</v>
+        <v>1614090.32932815</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.757032044874962e-06</v>
+        <v>2.533050573738165e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.29791666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1364088.319483616</v>
+        <v>1460043.813687075</v>
       </c>
     </row>
     <row r="21">
@@ -7541,28 +7541,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1106.560318545927</v>
+        <v>1184.090036504686</v>
       </c>
       <c r="AB21" t="n">
-        <v>1514.04464583039</v>
+        <v>1620.124226311323</v>
       </c>
       <c r="AC21" t="n">
-        <v>1369.546349807343</v>
+        <v>1465.501844010803</v>
       </c>
       <c r="AD21" t="n">
-        <v>1106560.318545927</v>
+        <v>1184090.036504686</v>
       </c>
       <c r="AE21" t="n">
-        <v>1514044.64583039</v>
+        <v>1620124.226311323</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.757032044874962e-06</v>
+        <v>2.533050573738165e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.29791666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>1369546.349807343</v>
+        <v>1465501.844010803</v>
       </c>
     </row>
   </sheetData>
@@ -7838,28 +7838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4154.093658181526</v>
+        <v>4313.939454380564</v>
       </c>
       <c r="AB2" t="n">
-        <v>5683.814208802246</v>
+        <v>5902.52227906061</v>
       </c>
       <c r="AC2" t="n">
-        <v>5141.35895799729</v>
+        <v>5339.193836988892</v>
       </c>
       <c r="AD2" t="n">
-        <v>4154093.658181526</v>
+        <v>4313939.454380563</v>
       </c>
       <c r="AE2" t="n">
-        <v>5683814.208802246</v>
+        <v>5902522.279060611</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.273182184735345e-07</v>
+        <v>1.21116274900019e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.00416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>5141358.957997289</v>
+        <v>5339193.836988892</v>
       </c>
     </row>
     <row r="3">
@@ -7944,28 +7944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1835.11249231668</v>
+        <v>1936.121574976716</v>
       </c>
       <c r="AB3" t="n">
-        <v>2510.881871437011</v>
+        <v>2649.086954538697</v>
       </c>
       <c r="AC3" t="n">
-        <v>2271.246829671902</v>
+        <v>2396.261813614415</v>
       </c>
       <c r="AD3" t="n">
-        <v>1835112.49231668</v>
+        <v>1936121.574976716</v>
       </c>
       <c r="AE3" t="n">
-        <v>2510881.871437011</v>
+        <v>2649086.954538697</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.333488467426514e-06</v>
+        <v>1.952176951872616e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.57916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2271246.829671902</v>
+        <v>2396261.813614415</v>
       </c>
     </row>
     <row r="4">
@@ -8050,28 +8050,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1479.923333398791</v>
+        <v>1572.429651649253</v>
       </c>
       <c r="AB4" t="n">
-        <v>2024.896394365786</v>
+        <v>2151.4676200868</v>
       </c>
       <c r="AC4" t="n">
-        <v>1831.643124447454</v>
+        <v>1946.134570029485</v>
       </c>
       <c r="AD4" t="n">
-        <v>1479923.333398791</v>
+        <v>1572429.651649253</v>
       </c>
       <c r="AE4" t="n">
-        <v>2024896.394365786</v>
+        <v>2151467.6200868</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.514586946479459e-06</v>
+        <v>2.21729831247098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.75833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1831643.124447454</v>
+        <v>1946134.570029485</v>
       </c>
     </row>
     <row r="5">
@@ -8156,28 +8156,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1332.564453179996</v>
+        <v>1416.738688730027</v>
       </c>
       <c r="AB5" t="n">
-        <v>1823.273473435454</v>
+        <v>1938.444376020192</v>
       </c>
       <c r="AC5" t="n">
-        <v>1649.262812111166</v>
+        <v>1753.441965396594</v>
       </c>
       <c r="AD5" t="n">
-        <v>1332564.453179996</v>
+        <v>1416738.688730027</v>
       </c>
       <c r="AE5" t="n">
-        <v>1823273.473435455</v>
+        <v>1938444.376020192</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.609059986385412e-06</v>
+        <v>2.355603288916459e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.53958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1649262.812111166</v>
+        <v>1753441.965396594</v>
       </c>
     </row>
     <row r="6">
@@ -8262,28 +8262,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1242.932044274168</v>
+        <v>1327.020938969626</v>
       </c>
       <c r="AB6" t="n">
-        <v>1700.6344572677</v>
+        <v>1815.68859273024</v>
       </c>
       <c r="AC6" t="n">
-        <v>1538.328291521522</v>
+        <v>1642.40182177501</v>
       </c>
       <c r="AD6" t="n">
-        <v>1242932.044274168</v>
+        <v>1327020.938969626</v>
       </c>
       <c r="AE6" t="n">
-        <v>1700634.4572677</v>
+        <v>1815688.59273024</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.667464245879986e-06</v>
+        <v>2.441104927709431e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.85625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1538328.291521522</v>
+        <v>1642401.82177501</v>
       </c>
     </row>
     <row r="7">
@@ -8368,28 +8368,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1188.589464843438</v>
+        <v>1264.261025492445</v>
       </c>
       <c r="AB7" t="n">
-        <v>1626.280542665173</v>
+        <v>1729.817710338788</v>
       </c>
       <c r="AC7" t="n">
-        <v>1471.070610172286</v>
+        <v>1564.726335878458</v>
       </c>
       <c r="AD7" t="n">
-        <v>1188589.464843438</v>
+        <v>1264261.025492445</v>
       </c>
       <c r="AE7" t="n">
-        <v>1626280.542665173</v>
+        <v>1729817.710338788</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.707305911271634e-06</v>
+        <v>2.499431627041071e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.41458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1471070.610172286</v>
+        <v>1564726.335878458</v>
       </c>
     </row>
     <row r="8">
@@ -8474,28 +8474,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1144.170460610832</v>
+        <v>1219.842021259839</v>
       </c>
       <c r="AB8" t="n">
-        <v>1565.504501445959</v>
+        <v>1669.041669119573</v>
       </c>
       <c r="AC8" t="n">
-        <v>1416.094949027323</v>
+        <v>1509.750674733495</v>
       </c>
       <c r="AD8" t="n">
-        <v>1144170.460610832</v>
+        <v>1219842.021259839</v>
       </c>
       <c r="AE8" t="n">
-        <v>1565504.501445959</v>
+        <v>1669041.669119573</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.736885329516948e-06</v>
+        <v>2.542734782605471e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.10208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1416094.949027323</v>
+        <v>1509750.674733495</v>
       </c>
     </row>
     <row r="9">
@@ -8580,28 +8580,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1103.694079226188</v>
+        <v>1187.697633067075</v>
       </c>
       <c r="AB9" t="n">
-        <v>1510.12293074357</v>
+        <v>1625.060299083912</v>
       </c>
       <c r="AC9" t="n">
-        <v>1365.998917704248</v>
+        <v>1469.966824925797</v>
       </c>
       <c r="AD9" t="n">
-        <v>1103694.079226188</v>
+        <v>1187697.633067075</v>
       </c>
       <c r="AE9" t="n">
-        <v>1510122.93074357</v>
+        <v>1625060.299083912</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.758164400805669e-06</v>
+        <v>2.573886542475779e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.88125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1365998.917704248</v>
+        <v>1469966.824925797</v>
       </c>
     </row>
     <row r="10">
@@ -8686,28 +8686,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1070.667405908298</v>
+        <v>1146.424217903325</v>
       </c>
       <c r="AB10" t="n">
-        <v>1464.934379276037</v>
+        <v>1568.588191602301</v>
       </c>
       <c r="AC10" t="n">
-        <v>1325.123098166246</v>
+        <v>1418.884336123131</v>
       </c>
       <c r="AD10" t="n">
-        <v>1070667.405908298</v>
+        <v>1146424.217903325</v>
       </c>
       <c r="AE10" t="n">
-        <v>1464934.379276037</v>
+        <v>1568588.191602301</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.77551967171491e-06</v>
+        <v>2.599294006199788e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1325123.098166246</v>
+        <v>1418884.336123131</v>
       </c>
     </row>
     <row r="11">
@@ -8792,28 +8792,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1041.909311395259</v>
+        <v>1117.666123390286</v>
       </c>
       <c r="AB11" t="n">
-        <v>1425.586285645709</v>
+        <v>1529.240097971973</v>
       </c>
       <c r="AC11" t="n">
-        <v>1289.5303313666</v>
+        <v>1383.291569323485</v>
       </c>
       <c r="AD11" t="n">
-        <v>1041909.311395259</v>
+        <v>1117666.123390286</v>
       </c>
       <c r="AE11" t="n">
-        <v>1425586.285645709</v>
+        <v>1529240.097971973</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.791214873232831e-06</v>
+        <v>2.62227119078498e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.55416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1289530.3313666</v>
+        <v>1383291.569323485</v>
       </c>
     </row>
     <row r="12">
@@ -8898,28 +8898,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1017.612548223488</v>
+        <v>1093.198768017923</v>
       </c>
       <c r="AB12" t="n">
-        <v>1392.342382376552</v>
+        <v>1495.762782927969</v>
       </c>
       <c r="AC12" t="n">
-        <v>1259.45917956734</v>
+        <v>1353.009282241573</v>
       </c>
       <c r="AD12" t="n">
-        <v>1017612.548223488</v>
+        <v>1093198.768017923</v>
       </c>
       <c r="AE12" t="n">
-        <v>1392342.382376552</v>
+        <v>1495762.782927969</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.800722543383111e-06</v>
+        <v>2.636190062216394e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.46041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1259459.17956734</v>
+        <v>1353009.282241573</v>
       </c>
     </row>
     <row r="13">
@@ -9004,28 +9004,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>998.8436782905302</v>
+        <v>1074.429898084965</v>
       </c>
       <c r="AB13" t="n">
-        <v>1366.661986510177</v>
+        <v>1470.082387061594</v>
       </c>
       <c r="AC13" t="n">
-        <v>1236.22968463979</v>
+        <v>1329.779787314024</v>
       </c>
       <c r="AD13" t="n">
-        <v>998843.6782905302</v>
+        <v>1074429.898084965</v>
       </c>
       <c r="AE13" t="n">
-        <v>1366661.986510177</v>
+        <v>1470082.387061594</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.808871974940494e-06</v>
+        <v>2.64812052344332e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.38125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1236229.68463979</v>
+        <v>1329779.787314024</v>
       </c>
     </row>
     <row r="14">
@@ -9110,28 +9110,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>995.1154704368145</v>
+        <v>1070.701690231249</v>
       </c>
       <c r="AB14" t="n">
-        <v>1361.560888047801</v>
+        <v>1464.981288599218</v>
       </c>
       <c r="AC14" t="n">
-        <v>1231.615427855226</v>
+        <v>1325.16553052946</v>
       </c>
       <c r="AD14" t="n">
-        <v>995115.4704368145</v>
+        <v>1070701.690231249</v>
       </c>
       <c r="AE14" t="n">
-        <v>1361560.888047801</v>
+        <v>1464981.288599218</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.811437536727077e-06</v>
+        <v>2.65187640938513e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.35833333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1231615.427855226</v>
+        <v>1325165.53052946</v>
       </c>
     </row>
     <row r="15">
@@ -9216,28 +9216,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>999.5073240042536</v>
+        <v>1075.093543798689</v>
       </c>
       <c r="AB15" t="n">
-        <v>1367.570015853676</v>
+        <v>1470.990416405093</v>
       </c>
       <c r="AC15" t="n">
-        <v>1237.051052937173</v>
+        <v>1330.601155611406</v>
       </c>
       <c r="AD15" t="n">
-        <v>999507.3240042536</v>
+        <v>1075093.543798689</v>
       </c>
       <c r="AE15" t="n">
-        <v>1367570.015853676</v>
+        <v>1470990.416405093</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.811135705928655e-06</v>
+        <v>2.651434540450799e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.36041666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1237051.052937173</v>
+        <v>1330601.155611406</v>
       </c>
     </row>
     <row r="16">
@@ -9322,28 +9322,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1003.924186269572</v>
+        <v>1079.510406064007</v>
       </c>
       <c r="AB16" t="n">
-        <v>1373.613361663296</v>
+        <v>1477.033762214712</v>
       </c>
       <c r="AC16" t="n">
-        <v>1242.517630304611</v>
+        <v>1336.067732978845</v>
       </c>
       <c r="AD16" t="n">
-        <v>1003924.186269572</v>
+        <v>1079510.406064007</v>
       </c>
       <c r="AE16" t="n">
-        <v>1373613.361663296</v>
+        <v>1477033.762214712</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.810984790529444e-06</v>
+        <v>2.651213605983634e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.36041666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1242517.630304611</v>
+        <v>1336067.732978845</v>
       </c>
     </row>
   </sheetData>
@@ -9619,28 +9619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1388.177036835591</v>
+        <v>1481.299250300448</v>
       </c>
       <c r="AB2" t="n">
-        <v>1899.365063847073</v>
+        <v>2026.778984571803</v>
       </c>
       <c r="AC2" t="n">
-        <v>1718.092327929118</v>
+        <v>1833.34604288644</v>
       </c>
       <c r="AD2" t="n">
-        <v>1388177.036835591</v>
+        <v>1481299.250300448</v>
       </c>
       <c r="AE2" t="n">
-        <v>1899365.063847073</v>
+        <v>2026778.984571803</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.442679377636945e-06</v>
+        <v>2.232003071325455e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.31875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1718092.327929118</v>
+        <v>1833346.04288644</v>
       </c>
     </row>
     <row r="3">
@@ -9725,28 +9725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>924.3241361714569</v>
+        <v>1001.997023513855</v>
       </c>
       <c r="AB3" t="n">
-        <v>1264.701061412688</v>
+        <v>1370.976532560503</v>
       </c>
       <c r="AC3" t="n">
-        <v>1143.999767130548</v>
+        <v>1240.132456470576</v>
       </c>
       <c r="AD3" t="n">
-        <v>924324.1361714569</v>
+        <v>1001997.023513855</v>
       </c>
       <c r="AE3" t="n">
-        <v>1264701.061412688</v>
+        <v>1370976.532560503</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.798339333930773e-06</v>
+        <v>2.782252923857188e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.50833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1143999.767130548</v>
+        <v>1240132.456470577</v>
       </c>
     </row>
     <row r="4">
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>796.192590605282</v>
+        <v>866.0129378674201</v>
       </c>
       <c r="AB4" t="n">
-        <v>1089.385828004209</v>
+        <v>1184.917107384594</v>
       </c>
       <c r="AC4" t="n">
-        <v>985.4163735420988</v>
+        <v>1071.830281697413</v>
       </c>
       <c r="AD4" t="n">
-        <v>796192.590605282</v>
+        <v>866012.93786742</v>
       </c>
       <c r="AE4" t="n">
-        <v>1089385.828004209</v>
+        <v>1184917.107384594</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.922281439911955e-06</v>
+        <v>2.974006660345519e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.25208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>985416.3735420988</v>
+        <v>1071830.281697413</v>
       </c>
     </row>
     <row r="5">
@@ -9937,28 +9937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>748.4407729861073</v>
+        <v>825.9429786193625</v>
       </c>
       <c r="AB5" t="n">
-        <v>1024.049684476142</v>
+        <v>1130.091621379562</v>
       </c>
       <c r="AC5" t="n">
-        <v>926.3158198524969</v>
+        <v>1022.237263128648</v>
       </c>
       <c r="AD5" t="n">
-        <v>748440.7729861073</v>
+        <v>825942.9786193626</v>
       </c>
       <c r="AE5" t="n">
-        <v>1024049.684476142</v>
+        <v>1130091.621379562</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.961181747631593e-06</v>
+        <v>3.034190237966178e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.88958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>926315.819852497</v>
+        <v>1022237.263128648</v>
       </c>
     </row>
     <row r="6">
@@ -10043,28 +10043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>752.0893428970056</v>
+        <v>829.5915485302609</v>
       </c>
       <c r="AB6" t="n">
-        <v>1029.041818791777</v>
+        <v>1135.083755695197</v>
       </c>
       <c r="AC6" t="n">
-        <v>930.8315118755527</v>
+        <v>1026.752955151704</v>
       </c>
       <c r="AD6" t="n">
-        <v>752089.3428970056</v>
+        <v>829591.5485302609</v>
       </c>
       <c r="AE6" t="n">
-        <v>1029041.818791777</v>
+        <v>1135083.755695197</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.961518546832629e-06</v>
+        <v>3.034711307902288e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.88541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>930831.5118755527</v>
+        <v>1026752.955151704</v>
       </c>
     </row>
   </sheetData>
@@ -10340,28 +10340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2056.606349838178</v>
+        <v>2168.821615656581</v>
       </c>
       <c r="AB2" t="n">
-        <v>2813.939538917271</v>
+        <v>2967.477416198144</v>
       </c>
       <c r="AC2" t="n">
-        <v>2545.381098711954</v>
+        <v>2684.265536476904</v>
       </c>
       <c r="AD2" t="n">
-        <v>2056606.349838178</v>
+        <v>2168821.615656581</v>
       </c>
       <c r="AE2" t="n">
-        <v>2813939.538917271</v>
+        <v>2967477.416198144</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.196508669266168e-06</v>
+        <v>1.808276335047448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.05208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2545381.098711954</v>
+        <v>2684265.536476905</v>
       </c>
     </row>
     <row r="3">
@@ -10446,28 +10446,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1214.928239114236</v>
+        <v>1303.079018888854</v>
       </c>
       <c r="AB3" t="n">
-        <v>1662.31841560719</v>
+        <v>1782.930201432759</v>
       </c>
       <c r="AC3" t="n">
-        <v>1503.669079100189</v>
+        <v>1612.769845366271</v>
       </c>
       <c r="AD3" t="n">
-        <v>1214928.239114236</v>
+        <v>1303079.018888854</v>
       </c>
       <c r="AE3" t="n">
-        <v>1662318.41560719</v>
+        <v>1782930.201432759</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.613119874156745e-06</v>
+        <v>2.437898336182859e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.80625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1503669.079100189</v>
+        <v>1612769.845366271</v>
       </c>
     </row>
     <row r="4">
@@ -10552,28 +10552,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1038.095088533075</v>
+        <v>1110.288367647327</v>
       </c>
       <c r="AB4" t="n">
-        <v>1420.367497654032</v>
+        <v>1519.145527080845</v>
       </c>
       <c r="AC4" t="n">
-        <v>1284.809617176234</v>
+        <v>1374.160410110387</v>
       </c>
       <c r="AD4" t="n">
-        <v>1038095.088533075</v>
+        <v>1110288.367647327</v>
       </c>
       <c r="AE4" t="n">
-        <v>1420367.497654032</v>
+        <v>1519145.527080845</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.757951070288465e-06</v>
+        <v>2.656780849338596e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.09375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1284809.617176234</v>
+        <v>1374160.410110387</v>
       </c>
     </row>
     <row r="5">
@@ -10658,28 +10658,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>945.982311380764</v>
+        <v>1018.090249640445</v>
       </c>
       <c r="AB5" t="n">
-        <v>1294.334732225317</v>
+        <v>1392.995994529931</v>
       </c>
       <c r="AC5" t="n">
-        <v>1170.805241991938</v>
+        <v>1260.050411894152</v>
       </c>
       <c r="AD5" t="n">
-        <v>945982.311380764</v>
+        <v>1018090.249640445</v>
       </c>
       <c r="AE5" t="n">
-        <v>1294334.732225317</v>
+        <v>1392995.994529931</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.832541552834612e-06</v>
+        <v>2.769508995713575e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.31458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1170805.241991938</v>
+        <v>1260050.411894152</v>
       </c>
     </row>
     <row r="6">
@@ -10764,28 +10764,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>878.2667385001935</v>
+        <v>958.310711908496</v>
       </c>
       <c r="AB6" t="n">
-        <v>1201.683298009885</v>
+        <v>1311.202993718005</v>
       </c>
       <c r="AC6" t="n">
-        <v>1086.996330620922</v>
+        <v>1186.063620282518</v>
       </c>
       <c r="AD6" t="n">
-        <v>878266.7385001935</v>
+        <v>958310.7119084961</v>
       </c>
       <c r="AE6" t="n">
-        <v>1201683.298009885</v>
+        <v>1311202.993718005</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.879422396076359e-06</v>
+        <v>2.840359731340182e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.85833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1086996.330620922</v>
+        <v>1186063.620282518</v>
       </c>
     </row>
     <row r="7">
@@ -10870,28 +10870,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>840.934990030009</v>
+        <v>913.1281796357104</v>
       </c>
       <c r="AB7" t="n">
-        <v>1150.604352792472</v>
+        <v>1249.382259749736</v>
       </c>
       <c r="AC7" t="n">
-        <v>1040.79228824531</v>
+        <v>1130.142970398236</v>
       </c>
       <c r="AD7" t="n">
-        <v>840934.990030009</v>
+        <v>913128.1796357103</v>
       </c>
       <c r="AE7" t="n">
-        <v>1150604.352792472</v>
+        <v>1249382.259749736</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.904071086852948e-06</v>
+        <v>2.877611149040768e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.62708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1040792.28824531</v>
+        <v>1130142.970398236</v>
       </c>
     </row>
     <row r="8">
@@ -10976,28 +10976,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>838.577254418189</v>
+        <v>910.7704440238904</v>
       </c>
       <c r="AB8" t="n">
-        <v>1147.378394912426</v>
+        <v>1246.15630186969</v>
       </c>
       <c r="AC8" t="n">
-        <v>1037.874211257675</v>
+        <v>1127.224893410601</v>
       </c>
       <c r="AD8" t="n">
-        <v>838577.2544181891</v>
+        <v>910770.4440238904</v>
       </c>
       <c r="AE8" t="n">
-        <v>1147378.394912426</v>
+        <v>1246156.30186969</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.907937548151236e-06</v>
+        <v>2.883454508680076e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.59166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1037874.211257675</v>
+        <v>1127224.893410601</v>
       </c>
     </row>
     <row r="9">
@@ -11082,28 +11082,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>842.2744034116822</v>
+        <v>914.4675930173835</v>
       </c>
       <c r="AB9" t="n">
-        <v>1152.436997272026</v>
+        <v>1251.21490422929</v>
       </c>
       <c r="AC9" t="n">
-        <v>1042.450027707867</v>
+        <v>1131.800709860793</v>
       </c>
       <c r="AD9" t="n">
-        <v>842274.4034116822</v>
+        <v>914467.5930173835</v>
       </c>
       <c r="AE9" t="n">
-        <v>1152436.997272026</v>
+        <v>1251214.90422929</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.908098650705332e-06</v>
+        <v>2.883697981998381e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.58958333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1042450.027707867</v>
+        <v>1131800.709860793</v>
       </c>
     </row>
   </sheetData>
@@ -11379,28 +11379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1008.401588458771</v>
+        <v>1091.463265121303</v>
       </c>
       <c r="AB2" t="n">
-        <v>1379.739540867601</v>
+        <v>1493.388191299829</v>
       </c>
       <c r="AC2" t="n">
-        <v>1248.059135563804</v>
+        <v>1350.861318305664</v>
       </c>
       <c r="AD2" t="n">
-        <v>1008401.588458771</v>
+        <v>1091463.265121303</v>
       </c>
       <c r="AE2" t="n">
-        <v>1379739.540867601</v>
+        <v>1493388.191299829</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.655926260673438e-06</v>
+        <v>2.617171567887186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.00416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1248059.135563804</v>
+        <v>1350861.318305664</v>
       </c>
     </row>
     <row r="3">
@@ -11485,28 +11485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>713.636894421091</v>
+        <v>789.1396699379309</v>
       </c>
       <c r="AB3" t="n">
-        <v>976.4294823847298</v>
+        <v>1079.735710794239</v>
       </c>
       <c r="AC3" t="n">
-        <v>883.240423013316</v>
+        <v>976.6872499746243</v>
       </c>
       <c r="AD3" t="n">
-        <v>713636.8944210911</v>
+        <v>789139.6699379309</v>
       </c>
       <c r="AE3" t="n">
-        <v>976429.4823847298</v>
+        <v>1079735.710794239</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.958498338299658e-06</v>
+        <v>3.095383102788414e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>883240.423013316</v>
+        <v>976687.2499746243</v>
       </c>
     </row>
     <row r="4">
@@ -11591,28 +11591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>690.6597586000523</v>
+        <v>758.6038119883021</v>
       </c>
       <c r="AB4" t="n">
-        <v>944.991151474694</v>
+        <v>1037.955202800581</v>
       </c>
       <c r="AC4" t="n">
-        <v>854.8025222813596</v>
+        <v>938.8942150245698</v>
       </c>
       <c r="AD4" t="n">
-        <v>690659.7586000523</v>
+        <v>758603.8119883022</v>
       </c>
       <c r="AE4" t="n">
-        <v>944991.151474694</v>
+        <v>1037955.202800581</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.989804928990464e-06</v>
+        <v>3.144862793393801e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>854802.5222813596</v>
+        <v>938894.2150245698</v>
       </c>
     </row>
     <row r="5">
@@ -11697,28 +11697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>696.1693498635623</v>
+        <v>764.113403251812</v>
       </c>
       <c r="AB5" t="n">
-        <v>952.5296173074402</v>
+        <v>1045.493668633327</v>
       </c>
       <c r="AC5" t="n">
-        <v>861.6215275153318</v>
+        <v>945.7132202585419</v>
       </c>
       <c r="AD5" t="n">
-        <v>696169.3498635623</v>
+        <v>764113.403251812</v>
       </c>
       <c r="AE5" t="n">
-        <v>952529.6173074401</v>
+        <v>1045493.668633327</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.989455134681069e-06</v>
+        <v>3.144309947688713e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.31458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>861621.5275153317</v>
+        <v>945713.2202585419</v>
       </c>
     </row>
   </sheetData>
@@ -11994,28 +11994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4683.979789295414</v>
+        <v>4853.378190998198</v>
       </c>
       <c r="AB2" t="n">
-        <v>6408.827790318551</v>
+        <v>6640.606156858357</v>
       </c>
       <c r="AC2" t="n">
-        <v>5797.178260856604</v>
+        <v>6006.836025396823</v>
       </c>
       <c r="AD2" t="n">
-        <v>4683979.789295414</v>
+        <v>4853378.190998198</v>
       </c>
       <c r="AE2" t="n">
-        <v>6408827.790318551</v>
+        <v>6640606.156858358</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.748689974373756e-07</v>
+        <v>1.129670887064211e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.20833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>5797178.260856603</v>
+        <v>6006836.025396823</v>
       </c>
     </row>
     <row r="3">
@@ -12100,28 +12100,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1956.081412967483</v>
+        <v>2057.686353450747</v>
       </c>
       <c r="AB3" t="n">
-        <v>2676.396885443569</v>
+        <v>2815.417247506386</v>
       </c>
       <c r="AC3" t="n">
-        <v>2420.965323043455</v>
+        <v>2546.7177768673</v>
       </c>
       <c r="AD3" t="n">
-        <v>1956081.412967484</v>
+        <v>2057686.353450747</v>
       </c>
       <c r="AE3" t="n">
-        <v>2676396.885443569</v>
+        <v>2815417.247506386</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.292794366695363e-06</v>
+        <v>1.884747181583293e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.1</v>
       </c>
       <c r="AH3" t="n">
-        <v>2420965.323043455</v>
+        <v>2546717.7768673</v>
       </c>
     </row>
     <row r="4">
@@ -12206,28 +12206,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1562.076272266322</v>
+        <v>1646.818188299276</v>
       </c>
       <c r="AB4" t="n">
-        <v>2137.301669656213</v>
+        <v>2253.249297721982</v>
       </c>
       <c r="AC4" t="n">
-        <v>1933.320598025957</v>
+        <v>2038.202347202647</v>
       </c>
       <c r="AD4" t="n">
-        <v>1562076.272266322</v>
+        <v>1646818.188299276</v>
       </c>
       <c r="AE4" t="n">
-        <v>2137301.669656212</v>
+        <v>2253249.297721982</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.480342276903135e-06</v>
+        <v>2.158170708388644e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.04791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1933320.598025957</v>
+        <v>2038202.347202647</v>
       </c>
     </row>
     <row r="5">
@@ -12312,28 +12312,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1393.339366793857</v>
+        <v>1478.08119331826</v>
       </c>
       <c r="AB5" t="n">
-        <v>1906.428391441897</v>
+        <v>2022.375897038118</v>
       </c>
       <c r="AC5" t="n">
-        <v>1724.481541451735</v>
+        <v>1829.363179847199</v>
       </c>
       <c r="AD5" t="n">
-        <v>1393339.366793857</v>
+        <v>1478081.19331826</v>
       </c>
       <c r="AE5" t="n">
-        <v>1906428.391441897</v>
+        <v>2022375.897038118</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.577705665695208e-06</v>
+        <v>2.300115457950273e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.74791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1724481.541451734</v>
+        <v>1829363.179847199</v>
       </c>
     </row>
     <row r="6">
@@ -12418,28 +12418,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1305.548589325909</v>
+        <v>1381.816322706423</v>
       </c>
       <c r="AB6" t="n">
-        <v>1786.309176654496</v>
+        <v>1890.662054160643</v>
       </c>
       <c r="AC6" t="n">
-        <v>1615.826335935265</v>
+        <v>1710.21992127241</v>
       </c>
       <c r="AD6" t="n">
-        <v>1305548.589325909</v>
+        <v>1381816.322706423</v>
       </c>
       <c r="AE6" t="n">
-        <v>1786309.176654496</v>
+        <v>1890662.054160643</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.639324277342419e-06</v>
+        <v>2.389948387012318e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.00625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1615826.335935266</v>
+        <v>1710219.92127241</v>
       </c>
     </row>
     <row r="7">
@@ -12524,28 +12524,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1241.24408956013</v>
+        <v>1325.900575229962</v>
       </c>
       <c r="AB7" t="n">
-        <v>1698.324923160648</v>
+        <v>1814.155661634672</v>
       </c>
       <c r="AC7" t="n">
-        <v>1536.239176108195</v>
+        <v>1641.015191471721</v>
       </c>
       <c r="AD7" t="n">
-        <v>1241244.08956013</v>
+        <v>1325900.575229962</v>
       </c>
       <c r="AE7" t="n">
-        <v>1698324.923160648</v>
+        <v>1814155.661634672</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.678808047912477e-06</v>
+        <v>2.447511234760813e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.56041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1536239.176108195</v>
+        <v>1641015.191471721</v>
       </c>
     </row>
     <row r="8">
@@ -12630,28 +12630,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1194.975767444308</v>
+        <v>1271.15815997025</v>
       </c>
       <c r="AB8" t="n">
-        <v>1635.018563627469</v>
+        <v>1739.254674011419</v>
       </c>
       <c r="AC8" t="n">
-        <v>1478.974686677829</v>
+        <v>1573.262648983035</v>
       </c>
       <c r="AD8" t="n">
-        <v>1194975.767444308</v>
+        <v>1271158.15997025</v>
       </c>
       <c r="AE8" t="n">
-        <v>1635018.563627469</v>
+        <v>1739254.674011419</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.710963391369152e-06</v>
+        <v>2.494390069101443e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.21041666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1478974.686677829</v>
+        <v>1573262.648983035</v>
       </c>
     </row>
     <row r="9">
@@ -12736,28 +12736,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1153.052863589368</v>
+        <v>1237.624008404628</v>
       </c>
       <c r="AB9" t="n">
-        <v>1577.657797065154</v>
+        <v>1693.37176841698</v>
       </c>
       <c r="AC9" t="n">
-        <v>1427.08835116988</v>
+        <v>1531.758743501467</v>
       </c>
       <c r="AD9" t="n">
-        <v>1153052.863589368</v>
+        <v>1237624.008404628</v>
       </c>
       <c r="AE9" t="n">
-        <v>1577657.797065154</v>
+        <v>1693371.76841698</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.73145307533922e-06</v>
+        <v>2.524261698425473e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.99583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1427088.35116988</v>
+        <v>1531758.743501467</v>
       </c>
     </row>
     <row r="10">
@@ -12842,28 +12842,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1123.816765434907</v>
+        <v>1200.084409306871</v>
       </c>
       <c r="AB10" t="n">
-        <v>1537.655677764601</v>
+        <v>1642.0084328012</v>
       </c>
       <c r="AC10" t="n">
-        <v>1390.903977992044</v>
+        <v>1485.297452547962</v>
       </c>
       <c r="AD10" t="n">
-        <v>1123816.765434908</v>
+        <v>1200084.409306871</v>
       </c>
       <c r="AE10" t="n">
-        <v>1537655.677764601</v>
+        <v>1642008.4328012</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.749101124306139e-06</v>
+        <v>2.54999054704033e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.81458333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1390903.977992045</v>
+        <v>1485297.452547962</v>
       </c>
     </row>
     <row r="11">
@@ -12948,28 +12948,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1095.348079704318</v>
+        <v>1171.615723576281</v>
       </c>
       <c r="AB11" t="n">
-        <v>1498.703565998235</v>
+        <v>1603.056321034834</v>
       </c>
       <c r="AC11" t="n">
-        <v>1355.669401103028</v>
+        <v>1450.062875658946</v>
       </c>
       <c r="AD11" t="n">
-        <v>1095348.079704318</v>
+        <v>1171615.723576281</v>
       </c>
       <c r="AE11" t="n">
-        <v>1498703.565998235</v>
+        <v>1603056.321034834</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.765104016165973e-06</v>
+        <v>2.573320943665667e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.65208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1355669.401103028</v>
+        <v>1450062.875658946</v>
       </c>
     </row>
     <row r="12">
@@ -13054,28 +13054,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1067.832408283267</v>
+        <v>1144.10005215523</v>
       </c>
       <c r="AB12" t="n">
-        <v>1461.055410454202</v>
+        <v>1565.408165490801</v>
       </c>
       <c r="AC12" t="n">
-        <v>1321.6143326846</v>
+        <v>1416.007807240518</v>
       </c>
       <c r="AD12" t="n">
-        <v>1067832.408283267</v>
+        <v>1144100.05215523</v>
       </c>
       <c r="AE12" t="n">
-        <v>1461055.410454202</v>
+        <v>1565408.165490801</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.776470556178565e-06</v>
+        <v>2.589892066502355e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.53958333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1321614.3326846</v>
+        <v>1416007.807240518</v>
       </c>
     </row>
     <row r="13">
@@ -13160,28 +13160,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1045.204660551769</v>
+        <v>1121.30171222314</v>
       </c>
       <c r="AB13" t="n">
-        <v>1430.095127742191</v>
+        <v>1534.214471003943</v>
       </c>
       <c r="AC13" t="n">
-        <v>1293.608855901594</v>
+        <v>1387.79119517486</v>
       </c>
       <c r="AD13" t="n">
-        <v>1045204.660551769</v>
+        <v>1121301.71222314</v>
       </c>
       <c r="AE13" t="n">
-        <v>1430095.127742191</v>
+        <v>1534214.471003943</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.786640618295095e-06</v>
+        <v>2.604718860619392e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.43958333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1293608.855901594</v>
+        <v>1387791.19517486</v>
       </c>
     </row>
     <row r="14">
@@ -13266,28 +13266,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1030.209937389272</v>
+        <v>1106.306989060643</v>
       </c>
       <c r="AB14" t="n">
-        <v>1409.578685990765</v>
+        <v>1513.698029252517</v>
       </c>
       <c r="AC14" t="n">
-        <v>1275.050474555916</v>
+        <v>1369.232813829183</v>
       </c>
       <c r="AD14" t="n">
-        <v>1030209.937389272</v>
+        <v>1106306.989060643</v>
       </c>
       <c r="AE14" t="n">
-        <v>1409578.685990765</v>
+        <v>1513698.029252517</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.79307168698643e-06</v>
+        <v>2.614094627487518e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.37708333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1275050.474555916</v>
+        <v>1369232.813829183</v>
       </c>
     </row>
     <row r="15">
@@ -13372,28 +13372,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1020.915582976319</v>
+        <v>1097.01263464769</v>
       </c>
       <c r="AB15" t="n">
-        <v>1396.861740244985</v>
+        <v>1500.981083506736</v>
       </c>
       <c r="AC15" t="n">
-        <v>1263.547216263768</v>
+        <v>1357.729555537034</v>
       </c>
       <c r="AD15" t="n">
-        <v>1020915.582976319</v>
+        <v>1097012.63464769</v>
       </c>
       <c r="AE15" t="n">
-        <v>1396861.740244984</v>
+        <v>1500981.083506736</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.795763762252571e-06</v>
+        <v>2.618019367106733e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.35</v>
       </c>
       <c r="AH15" t="n">
-        <v>1263547.216263768</v>
+        <v>1357729.555537035</v>
       </c>
     </row>
     <row r="16">
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1022.886226628578</v>
+        <v>1098.983278299949</v>
       </c>
       <c r="AB16" t="n">
-        <v>1399.558061828667</v>
+        <v>1503.677405090419</v>
       </c>
       <c r="AC16" t="n">
-        <v>1265.986204699816</v>
+        <v>1360.168543973082</v>
       </c>
       <c r="AD16" t="n">
-        <v>1022886.226628578</v>
+        <v>1098983.278299949</v>
       </c>
       <c r="AE16" t="n">
-        <v>1399558.061828667</v>
+        <v>1503677.405090419</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.797558479096664e-06</v>
+        <v>2.62063586018621e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1265986.204699815</v>
+        <v>1360168.543973082</v>
       </c>
     </row>
     <row r="17">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1027.415155179835</v>
+        <v>1103.512206851205</v>
       </c>
       <c r="AB17" t="n">
-        <v>1405.754741674723</v>
+        <v>1509.874084936475</v>
       </c>
       <c r="AC17" t="n">
-        <v>1271.591482118458</v>
+        <v>1365.773821391725</v>
       </c>
       <c r="AD17" t="n">
-        <v>1027415.155179835</v>
+        <v>1103512.206851205</v>
       </c>
       <c r="AE17" t="n">
-        <v>1405754.741674723</v>
+        <v>1509874.084936475</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.797408919359656e-06</v>
+        <v>2.620417819096254e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.33541666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>1271591.482118458</v>
+        <v>1365773.821391725</v>
       </c>
     </row>
   </sheetData>
@@ -13881,28 +13881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>814.713841443503</v>
+        <v>896.4174823804129</v>
       </c>
       <c r="AB2" t="n">
-        <v>1114.727420500982</v>
+        <v>1226.517946541107</v>
       </c>
       <c r="AC2" t="n">
-        <v>1008.339400018128</v>
+        <v>1109.460795151972</v>
       </c>
       <c r="AD2" t="n">
-        <v>814713.841443503</v>
+        <v>896417.482380413</v>
       </c>
       <c r="AE2" t="n">
-        <v>1114727.420500982</v>
+        <v>1226517.946541107</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.7923714746931e-06</v>
+        <v>2.871800126355814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.80416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1008339.400018128</v>
+        <v>1109460.795151972</v>
       </c>
     </row>
     <row r="3">
@@ -13987,28 +13987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>649.5809666626604</v>
+        <v>723.8492456185265</v>
       </c>
       <c r="AB3" t="n">
-        <v>888.7853360775576</v>
+        <v>990.4024718301988</v>
       </c>
       <c r="AC3" t="n">
-        <v>803.9609110203687</v>
+        <v>895.8798499573234</v>
       </c>
       <c r="AD3" t="n">
-        <v>649580.9666626605</v>
+        <v>723849.2456185266</v>
       </c>
       <c r="AE3" t="n">
-        <v>888785.3360775576</v>
+        <v>990402.4718301988</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.994984267718124e-06</v>
+        <v>3.196433414056512e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.69166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>803960.9110203687</v>
+        <v>895879.8499573234</v>
       </c>
     </row>
     <row r="4">
@@ -14093,28 +14093,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>654.9181320940924</v>
+        <v>729.1864110499587</v>
       </c>
       <c r="AB4" t="n">
-        <v>896.0878812799638</v>
+        <v>997.7050170326049</v>
       </c>
       <c r="AC4" t="n">
-        <v>810.5665115578438</v>
+        <v>902.4854504947984</v>
       </c>
       <c r="AD4" t="n">
-        <v>654918.1320940923</v>
+        <v>729186.4110499587</v>
       </c>
       <c r="AE4" t="n">
-        <v>896087.8812799638</v>
+        <v>997705.0170326049</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.996058187115783e-06</v>
+        <v>3.198154085192734e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.68125</v>
       </c>
       <c r="AH4" t="n">
-        <v>810566.5115578438</v>
+        <v>902485.4504947985</v>
       </c>
     </row>
   </sheetData>
@@ -14390,28 +14390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2923.713784867281</v>
+        <v>3063.422469785656</v>
       </c>
       <c r="AB2" t="n">
-        <v>4000.354185604516</v>
+        <v>4191.509771822028</v>
       </c>
       <c r="AC2" t="n">
-        <v>3618.565996662632</v>
+        <v>3791.477962020088</v>
       </c>
       <c r="AD2" t="n">
-        <v>2923713.784867281</v>
+        <v>3063422.469785656</v>
       </c>
       <c r="AE2" t="n">
-        <v>4000354.185604516</v>
+        <v>4191509.771822028</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.977769280042917e-07</v>
+        <v>1.481542283799916e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.46666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3618565.996662632</v>
+        <v>3791477.962020088</v>
       </c>
     </row>
     <row r="3">
@@ -14496,28 +14496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1516.117375081345</v>
+        <v>1606.597464777026</v>
       </c>
       <c r="AB3" t="n">
-        <v>2074.418678964281</v>
+        <v>2198.217529385749</v>
       </c>
       <c r="AC3" t="n">
-        <v>1876.439071708831</v>
+        <v>1988.422733598853</v>
       </c>
       <c r="AD3" t="n">
-        <v>1516117.375081345</v>
+        <v>1606597.464777026</v>
       </c>
       <c r="AE3" t="n">
-        <v>2074418.678964281</v>
+        <v>2198217.529385749</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.463779336174599e-06</v>
+        <v>2.173482789417548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.12916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1876439.071708831</v>
+        <v>1988422.733598853</v>
       </c>
     </row>
     <row r="4">
@@ -14602,28 +14602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1251.022850613284</v>
+        <v>1341.417509945843</v>
       </c>
       <c r="AB4" t="n">
-        <v>1711.704655442063</v>
+        <v>1835.386616271785</v>
       </c>
       <c r="AC4" t="n">
-        <v>1548.341965519244</v>
+        <v>1660.2198935961</v>
       </c>
       <c r="AD4" t="n">
-        <v>1251022.850613284</v>
+        <v>1341417.509945842</v>
       </c>
       <c r="AE4" t="n">
-        <v>1711704.655442063</v>
+        <v>1835386.616271785</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.62875382902368e-06</v>
+        <v>2.418444042824391e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.8875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1548341.965519244</v>
+        <v>1660219.8935961</v>
       </c>
     </row>
     <row r="5">
@@ -14708,28 +14708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1138.525056862355</v>
+        <v>1220.771844227513</v>
       </c>
       <c r="AB5" t="n">
-        <v>1557.780210979656</v>
+        <v>1670.313893924838</v>
       </c>
       <c r="AC5" t="n">
-        <v>1409.107854002015</v>
+        <v>1510.901480188925</v>
       </c>
       <c r="AD5" t="n">
-        <v>1138525.056862355</v>
+        <v>1220771.844227513</v>
       </c>
       <c r="AE5" t="n">
-        <v>1557780.210979656</v>
+        <v>1670313.893924838</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.711474309886744e-06</v>
+        <v>2.541270986097191e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.92708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1409107.854002015</v>
+        <v>1510901.480188925</v>
       </c>
     </row>
     <row r="6">
@@ -14814,28 +14814,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1070.523795894502</v>
+        <v>1144.537459946238</v>
       </c>
       <c r="AB6" t="n">
-        <v>1464.737885719535</v>
+        <v>1566.006646127528</v>
       </c>
       <c r="AC6" t="n">
-        <v>1324.945357678996</v>
+        <v>1416.549169725248</v>
       </c>
       <c r="AD6" t="n">
-        <v>1070523.795894502</v>
+        <v>1144537.459946238</v>
       </c>
       <c r="AE6" t="n">
-        <v>1464737.885719535</v>
+        <v>1566006.646127528</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.76449627224446e-06</v>
+        <v>2.6200002862025e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.35833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1324945.357678996</v>
+        <v>1416549.169725248</v>
       </c>
     </row>
     <row r="7">
@@ -14920,28 +14920,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1012.740201806591</v>
+        <v>1094.901648317177</v>
       </c>
       <c r="AB7" t="n">
-        <v>1385.675823056201</v>
+        <v>1498.092738879185</v>
       </c>
       <c r="AC7" t="n">
-        <v>1253.428867311948</v>
+        <v>1355.11687046692</v>
       </c>
       <c r="AD7" t="n">
-        <v>1012740.201806591</v>
+        <v>1094901.648317177</v>
       </c>
       <c r="AE7" t="n">
-        <v>1385675.823056201</v>
+        <v>1498092.738879185</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.801036334279836e-06</v>
+        <v>2.674256548738417e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.98541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1253428.867311948</v>
+        <v>1355116.87046692</v>
       </c>
     </row>
     <row r="8">
@@ -15026,28 +15026,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>974.902711598132</v>
+        <v>1049.001626995888</v>
       </c>
       <c r="AB8" t="n">
-        <v>1333.90489968073</v>
+        <v>1435.290304741372</v>
       </c>
       <c r="AC8" t="n">
-        <v>1206.598888202486</v>
+        <v>1298.308212499449</v>
       </c>
       <c r="AD8" t="n">
-        <v>974902.711598132</v>
+        <v>1049001.626995888</v>
       </c>
       <c r="AE8" t="n">
-        <v>1333904.89968073</v>
+        <v>1435290.304741372</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.825292715886299e-06</v>
+        <v>2.710273471953749e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.74583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1206598.888202486</v>
+        <v>1298308.212499449</v>
       </c>
     </row>
     <row r="9">
@@ -15132,28 +15132,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>940.9746023503996</v>
+        <v>1015.073517748156</v>
       </c>
       <c r="AB9" t="n">
-        <v>1287.482963805442</v>
+        <v>1388.868368866084</v>
       </c>
       <c r="AC9" t="n">
-        <v>1164.607396733538</v>
+        <v>1256.316721030502</v>
       </c>
       <c r="AD9" t="n">
-        <v>940974.6023503996</v>
+        <v>1015073.517748156</v>
       </c>
       <c r="AE9" t="n">
-        <v>1287482.963805442</v>
+        <v>1388868.368866083</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.844573429470923e-06</v>
+        <v>2.73890230835568e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.5625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1164607.396733538</v>
+        <v>1256316.721030502</v>
       </c>
     </row>
     <row r="10">
@@ -15238,28 +15238,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>919.9965444536732</v>
+        <v>993.9248676508371</v>
       </c>
       <c r="AB10" t="n">
-        <v>1258.779859504544</v>
+        <v>1359.931852790339</v>
       </c>
       <c r="AC10" t="n">
-        <v>1138.643676422058</v>
+        <v>1230.141865436371</v>
       </c>
       <c r="AD10" t="n">
-        <v>919996.5444536732</v>
+        <v>993924.8676508371</v>
       </c>
       <c r="AE10" t="n">
-        <v>1258779.859504544</v>
+        <v>1359931.852790338</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.855457703268695e-06</v>
+        <v>2.755063748259996e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.45833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1138643.676422058</v>
+        <v>1230141.865436371</v>
       </c>
     </row>
     <row r="11">
@@ -15344,28 +15344,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>918.5961265709053</v>
+        <v>992.5244497680692</v>
       </c>
       <c r="AB11" t="n">
-        <v>1256.863745975264</v>
+        <v>1358.015739261059</v>
       </c>
       <c r="AC11" t="n">
-        <v>1136.910434078731</v>
+        <v>1228.408623093044</v>
       </c>
       <c r="AD11" t="n">
-        <v>918596.1265709053</v>
+        <v>992524.4497680692</v>
       </c>
       <c r="AE11" t="n">
-        <v>1256863.745975264</v>
+        <v>1358015.739261059</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.856546130648471e-06</v>
+        <v>2.756679892250428e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.44791666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1136910.434078731</v>
+        <v>1228408.623093044</v>
       </c>
     </row>
     <row r="12">
@@ -15450,28 +15450,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>921.9910757019538</v>
+        <v>995.9193988991177</v>
       </c>
       <c r="AB12" t="n">
-        <v>1261.50886515095</v>
+        <v>1362.660858436745</v>
       </c>
       <c r="AC12" t="n">
-        <v>1141.112229599755</v>
+        <v>1232.610418614068</v>
       </c>
       <c r="AD12" t="n">
-        <v>921991.0757019538</v>
+        <v>995919.3988991177</v>
       </c>
       <c r="AE12" t="n">
-        <v>1261508.86515095</v>
+        <v>1362660.858436745</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.858256516530979e-06</v>
+        <v>2.759219547092535e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.43333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1141112.229599755</v>
+        <v>1232610.418614068</v>
       </c>
     </row>
   </sheetData>
@@ -15747,28 +15747,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3696.51063592107</v>
+        <v>3846.87849476469</v>
       </c>
       <c r="AB2" t="n">
-        <v>5057.72893060725</v>
+        <v>5263.468868838846</v>
       </c>
       <c r="AC2" t="n">
-        <v>4575.026380037039</v>
+        <v>4761.130787321623</v>
       </c>
       <c r="AD2" t="n">
-        <v>3696510.63592107</v>
+        <v>3846878.49476469</v>
       </c>
       <c r="AE2" t="n">
-        <v>5057728.93060725</v>
+        <v>5263468.868838846</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.811857778007905e-07</v>
+        <v>1.295732999694113e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.02083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4575026.38003704</v>
+        <v>4761130.787321622</v>
       </c>
     </row>
     <row r="3">
@@ -15853,28 +15853,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1730.97746355164</v>
+        <v>1831.108944810808</v>
       </c>
       <c r="AB3" t="n">
-        <v>2368.399730967451</v>
+        <v>2505.404041115426</v>
       </c>
       <c r="AC3" t="n">
-        <v>2142.362984713816</v>
+        <v>2266.291795788026</v>
       </c>
       <c r="AD3" t="n">
-        <v>1730977.46355164</v>
+        <v>1831108.944810808</v>
       </c>
       <c r="AE3" t="n">
-        <v>2368399.73096745</v>
+        <v>2505404.041115426</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.373881975139614e-06</v>
+        <v>2.020214417572875e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.10208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2142362.984713816</v>
+        <v>2266291.795788026</v>
       </c>
     </row>
     <row r="4">
@@ -15959,28 +15959,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1406.728328126908</v>
+        <v>1498.415962409858</v>
       </c>
       <c r="AB4" t="n">
-        <v>1924.747759017064</v>
+        <v>2050.19882521594</v>
       </c>
       <c r="AC4" t="n">
-        <v>1741.052534296921</v>
+        <v>1854.530726809454</v>
       </c>
       <c r="AD4" t="n">
-        <v>1406728.328126908</v>
+        <v>1498415.962409858</v>
       </c>
       <c r="AE4" t="n">
-        <v>1924747.759017064</v>
+        <v>2050198.82521594</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.550606647036038e-06</v>
+        <v>2.280077882241819e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1741052.534296921</v>
+        <v>1854530.726809454</v>
       </c>
     </row>
     <row r="5">
@@ -16065,28 +16065,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1268.712673158754</v>
+        <v>1352.127142174629</v>
       </c>
       <c r="AB5" t="n">
-        <v>1735.908651068666</v>
+        <v>1850.040007562839</v>
       </c>
       <c r="AC5" t="n">
-        <v>1570.235965773766</v>
+        <v>1673.474785788499</v>
       </c>
       <c r="AD5" t="n">
-        <v>1268712.673158754</v>
+        <v>1352127.142174629</v>
       </c>
       <c r="AE5" t="n">
-        <v>1735908.651068666</v>
+        <v>1850040.007562838</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.642777704361328e-06</v>
+        <v>2.415610120280363e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.32083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1570235.965773766</v>
+        <v>1673474.785788499</v>
       </c>
     </row>
     <row r="6">
@@ -16171,28 +16171,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1185.168491383818</v>
+        <v>1268.668211745713</v>
       </c>
       <c r="AB6" t="n">
-        <v>1621.599815855024</v>
+        <v>1735.847817001845</v>
       </c>
       <c r="AC6" t="n">
-        <v>1466.836605359455</v>
+        <v>1570.180937624901</v>
       </c>
       <c r="AD6" t="n">
-        <v>1185168.491383818</v>
+        <v>1268668.211745713</v>
       </c>
       <c r="AE6" t="n">
-        <v>1621599.815855023</v>
+        <v>1735847.817001845</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.699299129597167e-06</v>
+        <v>2.498721624928792e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.67916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1466836.605359455</v>
+        <v>1570180.937624901</v>
       </c>
     </row>
     <row r="7">
@@ -16277,28 +16277,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1132.706903824513</v>
+        <v>1207.848207573313</v>
       </c>
       <c r="AB7" t="n">
-        <v>1549.819557314484</v>
+        <v>1652.631204103952</v>
       </c>
       <c r="AC7" t="n">
-        <v>1401.906953949799</v>
+        <v>1494.906401466733</v>
       </c>
       <c r="AD7" t="n">
-        <v>1132706.903824513</v>
+        <v>1207848.207573313</v>
       </c>
       <c r="AE7" t="n">
-        <v>1549819.557314484</v>
+        <v>1652631.204103952</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.737538692223032e-06</v>
+        <v>2.554950702197676e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.26666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1401906.953949799</v>
+        <v>1494906.401466733</v>
       </c>
     </row>
     <row r="8">
@@ -16383,28 +16383,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1082.939715721678</v>
+        <v>1166.354095229002</v>
       </c>
       <c r="AB8" t="n">
-        <v>1481.725894978802</v>
+        <v>1595.857129003426</v>
       </c>
       <c r="AC8" t="n">
-        <v>1340.312055177379</v>
+        <v>1443.550764410886</v>
       </c>
       <c r="AD8" t="n">
-        <v>1082939.715721678</v>
+        <v>1166354.095229002</v>
       </c>
       <c r="AE8" t="n">
-        <v>1481725.894978802</v>
+        <v>1595857.129003426</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.766027928123576e-06</v>
+        <v>2.596842484864135e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.97291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1340312.055177379</v>
+        <v>1443550.764410886</v>
       </c>
     </row>
     <row r="9">
@@ -16489,28 +16489,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1050.482385727903</v>
+        <v>1125.708940822723</v>
       </c>
       <c r="AB9" t="n">
-        <v>1437.316344164979</v>
+        <v>1540.244635607097</v>
       </c>
       <c r="AC9" t="n">
-        <v>1300.140889564032</v>
+        <v>1393.245849331678</v>
       </c>
       <c r="AD9" t="n">
-        <v>1050482.385727903</v>
+        <v>1125708.940822723</v>
       </c>
       <c r="AE9" t="n">
-        <v>1437316.344164979</v>
+        <v>1540244.635607097</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.785833279284382e-06</v>
+        <v>2.62596511452531e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.77291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1300140.889564032</v>
+        <v>1393245.849331678</v>
       </c>
     </row>
     <row r="10">
@@ -16595,28 +16595,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1018.476792593356</v>
+        <v>1093.703347688176</v>
       </c>
       <c r="AB10" t="n">
-        <v>1393.524879651176</v>
+        <v>1496.453171093294</v>
       </c>
       <c r="AC10" t="n">
-        <v>1260.52882096172</v>
+        <v>1353.633780729366</v>
       </c>
       <c r="AD10" t="n">
-        <v>1018476.792593356</v>
+        <v>1093703.347688176</v>
       </c>
       <c r="AE10" t="n">
-        <v>1393524.879651177</v>
+        <v>1496453.171093294</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.802286955633359e-06</v>
+        <v>2.650159299166901e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.61041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1260528.82096172</v>
+        <v>1353633.780729366</v>
       </c>
     </row>
     <row r="11">
@@ -16701,28 +16701,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>991.2290355088065</v>
+        <v>1066.284998403035</v>
       </c>
       <c r="AB11" t="n">
-        <v>1356.243296321892</v>
+        <v>1458.938175989163</v>
       </c>
       <c r="AC11" t="n">
-        <v>1226.805339620352</v>
+        <v>1319.699164105346</v>
       </c>
       <c r="AD11" t="n">
-        <v>991229.0355088066</v>
+        <v>1066284.998403035</v>
       </c>
       <c r="AE11" t="n">
-        <v>1356243.296321892</v>
+        <v>1458938.175989163</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.815846003735758e-06</v>
+        <v>2.670097099473398e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.47916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1226805.339620352</v>
+        <v>1319699.164105346</v>
       </c>
     </row>
     <row r="12">
@@ -16807,28 +16807,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>971.8051884789583</v>
+        <v>1046.861151373186</v>
       </c>
       <c r="AB12" t="n">
-        <v>1329.666731896001</v>
+        <v>1432.361611563272</v>
       </c>
       <c r="AC12" t="n">
-        <v>1202.765205202825</v>
+        <v>1295.65902968782</v>
       </c>
       <c r="AD12" t="n">
-        <v>971805.1884789582</v>
+        <v>1046861.151373186</v>
       </c>
       <c r="AE12" t="n">
-        <v>1329666.731896001</v>
+        <v>1432361.611563272</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.822549353359415e-06</v>
+        <v>2.679953989512564e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.41458333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1202765.205202825</v>
+        <v>1295659.02968782</v>
       </c>
     </row>
     <row r="13">
@@ -16913,28 +16913,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>970.2389300739288</v>
+        <v>1045.294892968157</v>
       </c>
       <c r="AB13" t="n">
-        <v>1327.523708047796</v>
+        <v>1430.218587715066</v>
       </c>
       <c r="AC13" t="n">
-        <v>1200.82670854294</v>
+        <v>1293.720533027935</v>
       </c>
       <c r="AD13" t="n">
-        <v>970238.9300739288</v>
+        <v>1045294.892968157</v>
       </c>
       <c r="AE13" t="n">
-        <v>1327523.708047796</v>
+        <v>1430218.587715066</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.826358074736493e-06</v>
+        <v>2.685554495216637e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.37916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1200826.70854294</v>
+        <v>1293720.533027935</v>
       </c>
     </row>
     <row r="14">
@@ -17019,28 +17019,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>973.1151604276367</v>
+        <v>1048.171123321865</v>
       </c>
       <c r="AB14" t="n">
-        <v>1331.459093308066</v>
+        <v>1434.153972975337</v>
       </c>
       <c r="AC14" t="n">
-        <v>1204.386506157318</v>
+        <v>1297.280330642313</v>
       </c>
       <c r="AD14" t="n">
-        <v>973115.1604276367</v>
+        <v>1048171.123321865</v>
       </c>
       <c r="AE14" t="n">
-        <v>1331459.093308066</v>
+        <v>1434153.972975337</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.826358074736493e-06</v>
+        <v>2.685554495216637e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.37916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1204386.506157318</v>
+        <v>1297280.330642313</v>
       </c>
     </row>
     <row r="15">
@@ -17125,28 +17125,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>977.1389776396421</v>
+        <v>1052.19494053387</v>
       </c>
       <c r="AB15" t="n">
-        <v>1336.964657535819</v>
+        <v>1439.65953720309</v>
       </c>
       <c r="AC15" t="n">
-        <v>1209.366627062282</v>
+        <v>1302.260451547277</v>
       </c>
       <c r="AD15" t="n">
-        <v>977138.9776396421</v>
+        <v>1052194.94053387</v>
       </c>
       <c r="AE15" t="n">
-        <v>1336964.657535819</v>
+        <v>1439659.53720309</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.826358074736493e-06</v>
+        <v>2.685554495216637e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.37916666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1209366.627062282</v>
+        <v>1302260.451547277</v>
       </c>
     </row>
   </sheetData>
@@ -17422,28 +17422,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5999.526551766273</v>
+        <v>6196.741849357251</v>
       </c>
       <c r="AB2" t="n">
-        <v>8208.816908558339</v>
+        <v>8478.65557924721</v>
       </c>
       <c r="AC2" t="n">
-        <v>7425.378943952113</v>
+        <v>7669.464590631381</v>
       </c>
       <c r="AD2" t="n">
-        <v>5999526.551766273</v>
+        <v>6196741.849357251</v>
       </c>
       <c r="AE2" t="n">
-        <v>8208816.90855834</v>
+        <v>8478655.57924721</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.767270123842747e-07</v>
+        <v>9.790700360354132e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.27291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>7425378.943952113</v>
+        <v>7669464.590631381</v>
       </c>
     </row>
     <row r="3">
@@ -17528,28 +17528,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2199.299084532643</v>
+        <v>2310.69443004033</v>
       </c>
       <c r="AB3" t="n">
-        <v>3009.178033685575</v>
+        <v>3161.594059825004</v>
       </c>
       <c r="AC3" t="n">
-        <v>2721.986305558406</v>
+        <v>2859.855960080318</v>
       </c>
       <c r="AD3" t="n">
-        <v>2199299.084532643</v>
+        <v>2310694.43004033</v>
       </c>
       <c r="AE3" t="n">
-        <v>3009178.033685575</v>
+        <v>3161594.059825004</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.217432189380576e-06</v>
+        <v>1.761347420325334e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.16458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2721986.305558406</v>
+        <v>2859855.960080318</v>
       </c>
     </row>
     <row r="4">
@@ -17634,28 +17634,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1714.081808399545</v>
+        <v>1808.483755691167</v>
       </c>
       <c r="AB4" t="n">
-        <v>2345.282350204657</v>
+        <v>2474.447259209035</v>
       </c>
       <c r="AC4" t="n">
-        <v>2121.451894325575</v>
+        <v>2238.289485698665</v>
       </c>
       <c r="AD4" t="n">
-        <v>1714081.808399545</v>
+        <v>1808483.755691167</v>
       </c>
       <c r="AE4" t="n">
-        <v>2345282.350204657</v>
+        <v>2474447.259209035</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.41506823993348e-06</v>
+        <v>2.047281824591218e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.65</v>
       </c>
       <c r="AH4" t="n">
-        <v>2121451.894325575</v>
+        <v>2238289.485698665</v>
       </c>
     </row>
     <row r="5">
@@ -17740,28 +17740,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1527.088206381357</v>
+        <v>1612.822907118628</v>
       </c>
       <c r="AB5" t="n">
-        <v>2089.429454347876</v>
+        <v>2206.735454244662</v>
       </c>
       <c r="AC5" t="n">
-        <v>1890.017239757571</v>
+        <v>1996.127719664213</v>
       </c>
       <c r="AD5" t="n">
-        <v>1527088.206381357</v>
+        <v>1612822.907118628</v>
       </c>
       <c r="AE5" t="n">
-        <v>2089429.454347876</v>
+        <v>2206735.454244662</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.518738936094044e-06</v>
+        <v>2.197269737543187e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.17083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1890017.239757571</v>
+        <v>1996127.719664213</v>
       </c>
     </row>
     <row r="6">
@@ -17846,28 +17846,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1419.788689367832</v>
+        <v>1505.438049250531</v>
       </c>
       <c r="AB6" t="n">
-        <v>1942.617521449369</v>
+        <v>2059.806754223958</v>
       </c>
       <c r="AC6" t="n">
-        <v>1757.216831683056</v>
+        <v>1863.221688557759</v>
       </c>
       <c r="AD6" t="n">
-        <v>1419788.689367832</v>
+        <v>1505438.049250531</v>
       </c>
       <c r="AE6" t="n">
-        <v>1942617.521449369</v>
+        <v>2059806.754223958</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.582853012017456e-06</v>
+        <v>2.290028219879441e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.35416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1757216.831683056</v>
+        <v>1863221.688557759</v>
       </c>
     </row>
     <row r="7">
@@ -17952,28 +17952,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1346.37919516</v>
+        <v>1432.11380638872</v>
       </c>
       <c r="AB7" t="n">
-        <v>1842.175412875898</v>
+        <v>1959.481290303135</v>
       </c>
       <c r="AC7" t="n">
-        <v>1666.360776980452</v>
+        <v>1772.471146105867</v>
       </c>
       <c r="AD7" t="n">
-        <v>1346379.19516</v>
+        <v>1432113.80638872</v>
       </c>
       <c r="AE7" t="n">
-        <v>1842175.412875898</v>
+        <v>1959481.290303135</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.626674100607311e-06</v>
+        <v>2.353427366063395e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1666360.776980452</v>
+        <v>1772471.146105867</v>
       </c>
     </row>
     <row r="8">
@@ -18058,28 +18058,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1297.997176113446</v>
+        <v>1375.149881642388</v>
       </c>
       <c r="AB8" t="n">
-        <v>1775.976999952365</v>
+        <v>1881.540735394208</v>
       </c>
       <c r="AC8" t="n">
-        <v>1606.480247676285</v>
+        <v>1701.969128367192</v>
       </c>
       <c r="AD8" t="n">
-        <v>1297997.176113446</v>
+        <v>1375149.881642388</v>
       </c>
       <c r="AE8" t="n">
-        <v>1775976.999952365</v>
+        <v>1881540.735394208</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.659319341100425e-06</v>
+        <v>2.400657602482313e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.4625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1606480.247676285</v>
+        <v>1701969.128367192</v>
       </c>
     </row>
     <row r="9">
@@ -18164,28 +18164,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1260.634770589445</v>
+        <v>1337.787476118387</v>
       </c>
       <c r="AB9" t="n">
-        <v>1724.856108401427</v>
+        <v>1830.41984384327</v>
       </c>
       <c r="AC9" t="n">
-        <v>1560.238262266347</v>
+        <v>1655.727142957253</v>
       </c>
       <c r="AD9" t="n">
-        <v>1260634.770589445</v>
+        <v>1337787.476118387</v>
       </c>
       <c r="AE9" t="n">
-        <v>1724856.108401428</v>
+        <v>1830419.84384327</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.682847442356723e-06</v>
+        <v>2.434697412513966e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.20625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1560238.262266347</v>
+        <v>1655727.142957253</v>
       </c>
     </row>
     <row r="10">
@@ -18270,28 +18270,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1221.272473801597</v>
+        <v>1306.921744175746</v>
       </c>
       <c r="AB10" t="n">
-        <v>1670.998877394319</v>
+        <v>1788.187987699359</v>
       </c>
       <c r="AC10" t="n">
-        <v>1511.521089797459</v>
+        <v>1617.525835890935</v>
       </c>
       <c r="AD10" t="n">
-        <v>1221272.473801597</v>
+        <v>1306921.744175746</v>
       </c>
       <c r="AE10" t="n">
-        <v>1670998.877394319</v>
+        <v>1788187.987699359</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.702111075260317e-06</v>
+        <v>2.462567506977381e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.99791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1511521.089797459</v>
+        <v>1617525.835890935</v>
       </c>
     </row>
     <row r="11">
@@ -18376,28 +18376,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1192.610640428466</v>
+        <v>1278.259910802614</v>
       </c>
       <c r="AB11" t="n">
-        <v>1631.782492502354</v>
+        <v>1748.971602807394</v>
       </c>
       <c r="AC11" t="n">
-        <v>1476.047461639041</v>
+        <v>1582.052207732517</v>
       </c>
       <c r="AD11" t="n">
-        <v>1192610.640428466</v>
+        <v>1278259.910802614</v>
       </c>
       <c r="AE11" t="n">
-        <v>1631782.492502354</v>
+        <v>1748971.602807394</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.717698442342615e-06</v>
+        <v>2.485118881123351e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.83541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1476047.461639041</v>
+        <v>1582052.207732518</v>
       </c>
     </row>
     <row r="12">
@@ -18482,28 +18482,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1167.743054445977</v>
+        <v>1244.981011320939</v>
       </c>
       <c r="AB12" t="n">
-        <v>1597.757564280647</v>
+        <v>1703.437944375139</v>
       </c>
       <c r="AC12" t="n">
-        <v>1445.269824812527</v>
+        <v>1540.864217754145</v>
       </c>
       <c r="AD12" t="n">
-        <v>1167743.054445977</v>
+        <v>1244981.011320939</v>
       </c>
       <c r="AE12" t="n">
-        <v>1597757.564280647</v>
+        <v>1703437.944375139</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.731227100564986e-06</v>
+        <v>2.504691771891552e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.69583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1445269.824812527</v>
+        <v>1540864.217754145</v>
       </c>
     </row>
     <row r="13">
@@ -18588,28 +18588,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1147.310890431422</v>
+        <v>1224.548847306385</v>
       </c>
       <c r="AB13" t="n">
-        <v>1569.801376072475</v>
+        <v>1675.481756166967</v>
       </c>
       <c r="AC13" t="n">
-        <v>1419.981735970186</v>
+        <v>1515.576128911805</v>
       </c>
       <c r="AD13" t="n">
-        <v>1147310.890431422</v>
+        <v>1224548.847306385</v>
       </c>
       <c r="AE13" t="n">
-        <v>1569801.376072475</v>
+        <v>1675481.756166967</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.740638341067505e-06</v>
+        <v>2.518307695904212e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.6</v>
       </c>
       <c r="AH13" t="n">
-        <v>1419981.735970186</v>
+        <v>1515576.128911805</v>
       </c>
     </row>
     <row r="14">
@@ -18694,28 +18694,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1123.90457119841</v>
+        <v>1201.142528073372</v>
       </c>
       <c r="AB14" t="n">
-        <v>1537.775817483941</v>
+        <v>1643.456197578433</v>
       </c>
       <c r="AC14" t="n">
-        <v>1391.012651745188</v>
+        <v>1486.607044686807</v>
       </c>
       <c r="AD14" t="n">
-        <v>1123904.57119841</v>
+        <v>1201142.528073372</v>
       </c>
       <c r="AE14" t="n">
-        <v>1537775.817483941</v>
+        <v>1643456.197578433</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.749020227140062e-06</v>
+        <v>2.530434378227989e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.51666666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1391012.651745188</v>
+        <v>1486607.044686807</v>
       </c>
     </row>
     <row r="15">
@@ -18800,28 +18800,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1104.617411318582</v>
+        <v>1181.684775992953</v>
       </c>
       <c r="AB15" t="n">
-        <v>1511.38627444692</v>
+        <v>1616.833242766565</v>
       </c>
       <c r="AC15" t="n">
-        <v>1367.141689657664</v>
+        <v>1462.524947316632</v>
       </c>
       <c r="AD15" t="n">
-        <v>1104617.411318582</v>
+        <v>1181684.775992953</v>
       </c>
       <c r="AE15" t="n">
-        <v>1511386.27444692</v>
+        <v>1616833.242766565</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.757990315744025e-06</v>
+        <v>2.543412055802557e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.42708333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1367141.689657664</v>
+        <v>1462524.947316632</v>
       </c>
     </row>
     <row r="16">
@@ -18906,28 +18906,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1083.991646541427</v>
+        <v>1161.059011215797</v>
       </c>
       <c r="AB16" t="n">
-        <v>1483.165193134294</v>
+        <v>1588.612161453939</v>
       </c>
       <c r="AC16" t="n">
-        <v>1341.613988736979</v>
+        <v>1436.997246395947</v>
       </c>
       <c r="AD16" t="n">
-        <v>1083991.646541427</v>
+        <v>1161059.011215797</v>
       </c>
       <c r="AE16" t="n">
-        <v>1483165.193134294</v>
+        <v>1588612.161453939</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.764901695488063e-06</v>
+        <v>2.553411249999354e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.35833333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1341613.988736979</v>
+        <v>1436997.246395947</v>
       </c>
     </row>
     <row r="17">
@@ -19012,28 +19012,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1075.934748007469</v>
+        <v>1153.00211268184</v>
       </c>
       <c r="AB17" t="n">
-        <v>1472.141389114857</v>
+        <v>1577.588357434502</v>
       </c>
       <c r="AC17" t="n">
-        <v>1331.642281101151</v>
+        <v>1427.025538760118</v>
       </c>
       <c r="AD17" t="n">
-        <v>1075934.748007469</v>
+        <v>1153002.11268184</v>
       </c>
       <c r="AE17" t="n">
-        <v>1472141.389114856</v>
+        <v>1577588.357434502</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.768430910676507e-06</v>
+        <v>2.558517221504102e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.325</v>
       </c>
       <c r="AH17" t="n">
-        <v>1331642.281101151</v>
+        <v>1427025.538760118</v>
       </c>
     </row>
     <row r="18">
@@ -19118,28 +19118,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1075.467833395057</v>
+        <v>1152.535198069427</v>
       </c>
       <c r="AB18" t="n">
-        <v>1471.502535943335</v>
+        <v>1576.94950426298</v>
       </c>
       <c r="AC18" t="n">
-        <v>1331.064399179683</v>
+        <v>1426.447656838651</v>
       </c>
       <c r="AD18" t="n">
-        <v>1075467.833395057</v>
+        <v>1152535.198069427</v>
       </c>
       <c r="AE18" t="n">
-        <v>1471502.535943335</v>
+        <v>1576949.50426298</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.770048467637878e-06</v>
+        <v>2.560857458443779e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.30833333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1331064.399179683</v>
+        <v>1426447.656838651</v>
       </c>
     </row>
     <row r="19">
@@ -19224,28 +19224,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1080.332850160323</v>
+        <v>1157.400214834694</v>
       </c>
       <c r="AB19" t="n">
-        <v>1478.159066510965</v>
+        <v>1583.606034830609</v>
       </c>
       <c r="AC19" t="n">
-        <v>1337.085639812437</v>
+        <v>1432.468897471405</v>
       </c>
       <c r="AD19" t="n">
-        <v>1080332.850160323</v>
+        <v>1157400.214834694</v>
       </c>
       <c r="AE19" t="n">
-        <v>1478159.066510964</v>
+        <v>1583606.034830609</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.769607315739322e-06</v>
+        <v>2.560219212005685e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.3125</v>
       </c>
       <c r="AH19" t="n">
-        <v>1337085.639812437</v>
+        <v>1432468.897471405</v>
       </c>
     </row>
     <row r="20">
@@ -19330,28 +19330,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1084.18918275111</v>
+        <v>1161.25654742548</v>
       </c>
       <c r="AB20" t="n">
-        <v>1483.435470891065</v>
+        <v>1588.88243921071</v>
       </c>
       <c r="AC20" t="n">
-        <v>1341.858471563981</v>
+        <v>1437.241729222949</v>
       </c>
       <c r="AD20" t="n">
-        <v>1084189.18275111</v>
+        <v>1161256.54742548</v>
       </c>
       <c r="AE20" t="n">
-        <v>1483435.470891065</v>
+        <v>1588882.43921071</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.769754366372174e-06</v>
+        <v>2.560431960818383e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.31041666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1341858.471563981</v>
+        <v>1437241.729222949</v>
       </c>
     </row>
   </sheetData>
@@ -19627,28 +19627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2317.086347362605</v>
+        <v>2438.352893659997</v>
       </c>
       <c r="AB2" t="n">
-        <v>3170.33976309683</v>
+        <v>3336.262001643378</v>
       </c>
       <c r="AC2" t="n">
-        <v>2867.766985706553</v>
+        <v>3017.853838679535</v>
       </c>
       <c r="AD2" t="n">
-        <v>2317086.347362604</v>
+        <v>2438352.893659997</v>
       </c>
       <c r="AE2" t="n">
-        <v>3170339.76309683</v>
+        <v>3336262.001643377</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.125694593966769e-06</v>
+        <v>1.690438251862061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.44166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2867766.985706552</v>
+        <v>3017853.838679535</v>
       </c>
     </row>
     <row r="3">
@@ -19733,28 +19733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1316.119529027435</v>
+        <v>1405.002838392031</v>
       </c>
       <c r="AB3" t="n">
-        <v>1800.77280271107</v>
+        <v>1922.386867838571</v>
       </c>
       <c r="AC3" t="n">
-        <v>1628.909573820827</v>
+        <v>1738.916963258972</v>
       </c>
       <c r="AD3" t="n">
-        <v>1316119.529027435</v>
+        <v>1405002.838392031</v>
       </c>
       <c r="AE3" t="n">
-        <v>1800772.80271107</v>
+        <v>1922386.867838571</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.560636513116733e-06</v>
+        <v>2.343583839848335e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.2375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1628909.573820827</v>
+        <v>1738916.963258972</v>
       </c>
     </row>
     <row r="4">
@@ -19839,28 +19839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1110.087461948232</v>
+        <v>1190.874962079629</v>
       </c>
       <c r="AB4" t="n">
-        <v>1518.870639040009</v>
+        <v>1629.407660812751</v>
       </c>
       <c r="AC4" t="n">
-        <v>1373.911756998361</v>
+        <v>1473.899280552797</v>
       </c>
       <c r="AD4" t="n">
-        <v>1110087.461948232</v>
+        <v>1190874.962079629</v>
       </c>
       <c r="AE4" t="n">
-        <v>1518870.639040009</v>
+        <v>1629407.660812751</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.712086661994116e-06</v>
+        <v>2.571014198210783e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.35833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1373911.756998361</v>
+        <v>1473899.280552797</v>
       </c>
     </row>
     <row r="5">
@@ -19945,28 +19945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1011.342600665955</v>
+        <v>1092.215352143373</v>
       </c>
       <c r="AB5" t="n">
-        <v>1383.763563517771</v>
+        <v>1494.417229943163</v>
       </c>
       <c r="AC5" t="n">
-        <v>1251.699111139994</v>
+        <v>1351.792146945142</v>
       </c>
       <c r="AD5" t="n">
-        <v>1011342.600665955</v>
+        <v>1092215.352143373</v>
       </c>
       <c r="AE5" t="n">
-        <v>1383763.563517771</v>
+        <v>1494417.229943163</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.789561685632021e-06</v>
+        <v>2.687357249179808e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.52083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1251699.111139994</v>
+        <v>1351792.146945142</v>
       </c>
     </row>
     <row r="6">
@@ -20051,28 +20051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>947.7785655542754</v>
+        <v>1020.555597307045</v>
       </c>
       <c r="AB6" t="n">
-        <v>1296.792446430656</v>
+        <v>1396.369191970837</v>
       </c>
       <c r="AC6" t="n">
-        <v>1173.028395402943</v>
+        <v>1263.10167610561</v>
       </c>
       <c r="AD6" t="n">
-        <v>947778.5655542754</v>
+        <v>1020555.597307045</v>
       </c>
       <c r="AE6" t="n">
-        <v>1296792.446430656</v>
+        <v>1396369.191970837</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.840151126118374e-06</v>
+        <v>2.763326633590794e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.01041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1173028.395402943</v>
+        <v>1263101.67610561</v>
       </c>
     </row>
     <row r="7">
@@ -20157,28 +20157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>896.0636228281331</v>
+        <v>968.9259059269237</v>
       </c>
       <c r="AB7" t="n">
-        <v>1226.033780290496</v>
+        <v>1325.727170483326</v>
       </c>
       <c r="AC7" t="n">
-        <v>1109.022837048788</v>
+        <v>1199.201630002167</v>
       </c>
       <c r="AD7" t="n">
-        <v>896063.6228281332</v>
+        <v>968925.9059269237</v>
       </c>
       <c r="AE7" t="n">
-        <v>1226033.780290496</v>
+        <v>1325727.170483326</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.87069569395919e-06</v>
+        <v>2.809194941159691e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.71666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1109022.837048788</v>
+        <v>1199201.630002167</v>
       </c>
     </row>
     <row r="8">
@@ -20263,28 +20263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>865.4402347979418</v>
+        <v>938.3025178967321</v>
       </c>
       <c r="AB8" t="n">
-        <v>1184.133509779057</v>
+        <v>1283.826899971888</v>
       </c>
       <c r="AC8" t="n">
-        <v>1071.121469547562</v>
+        <v>1161.300262500941</v>
       </c>
       <c r="AD8" t="n">
-        <v>865440.2347979418</v>
+        <v>938302.5178967321</v>
       </c>
       <c r="AE8" t="n">
-        <v>1184133.509779057</v>
+        <v>1283826.899971887</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.889308789987188e-06</v>
+        <v>2.837145941084488e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.54166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1071121.469547562</v>
+        <v>1161300.262500941</v>
       </c>
     </row>
     <row r="9">
@@ -20369,28 +20369,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>864.7864719522795</v>
+        <v>937.6487550510697</v>
       </c>
       <c r="AB9" t="n">
-        <v>1183.239002611641</v>
+        <v>1282.932392804471</v>
       </c>
       <c r="AC9" t="n">
-        <v>1070.312332888755</v>
+        <v>1160.491125842134</v>
       </c>
       <c r="AD9" t="n">
-        <v>864786.4719522794</v>
+        <v>937648.7550510697</v>
       </c>
       <c r="AE9" t="n">
-        <v>1183239.002611641</v>
+        <v>1282932.392804471</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.891376911768077e-06</v>
+        <v>2.840251607742799e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.52291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1070312.332888755</v>
+        <v>1160491.125842134</v>
       </c>
     </row>
     <row r="10">
@@ -20475,28 +20475,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>868.7350159047708</v>
+        <v>941.5972990035613</v>
       </c>
       <c r="AB10" t="n">
-        <v>1188.641574644904</v>
+        <v>1288.334964837735</v>
       </c>
       <c r="AC10" t="n">
-        <v>1075.199291029722</v>
+        <v>1165.3780839831</v>
       </c>
       <c r="AD10" t="n">
-        <v>868735.0159047708</v>
+        <v>941597.2990035613</v>
       </c>
       <c r="AE10" t="n">
-        <v>1188641.574644905</v>
+        <v>1288334.964837735</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.891695084349752e-06</v>
+        <v>2.840729402613308e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.52083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1075199.291029722</v>
+        <v>1165378.0839831</v>
       </c>
     </row>
   </sheetData>
@@ -20772,28 +20772,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1593.681759280978</v>
+        <v>1695.838255178023</v>
       </c>
       <c r="AB2" t="n">
-        <v>2180.545691325344</v>
+        <v>2320.320715838205</v>
       </c>
       <c r="AC2" t="n">
-        <v>1972.437470960352</v>
+        <v>2098.872563309184</v>
       </c>
       <c r="AD2" t="n">
-        <v>1593681.759280978</v>
+        <v>1695838.255178023</v>
       </c>
       <c r="AE2" t="n">
-        <v>2180545.691325344</v>
+        <v>2320320.715838205</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.352733014072598e-06</v>
+        <v>2.074749862438827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1972437.470960352</v>
+        <v>2098872.563309184</v>
       </c>
     </row>
     <row r="3">
@@ -20878,28 +20878,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1019.923688510552</v>
+        <v>1106.193118714293</v>
       </c>
       <c r="AB3" t="n">
-        <v>1395.504586477626</v>
+        <v>1513.542226821037</v>
       </c>
       <c r="AC3" t="n">
-        <v>1262.31958734719</v>
+        <v>1369.091880963093</v>
       </c>
       <c r="AD3" t="n">
-        <v>1019923.688510552</v>
+        <v>1106193.118714293</v>
       </c>
       <c r="AE3" t="n">
-        <v>1395504.586477626</v>
+        <v>1513542.226821037</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.731060769937812e-06</v>
+        <v>2.655008828008818e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.94375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1262319.58734719</v>
+        <v>1369091.880963093</v>
       </c>
     </row>
     <row r="4">
@@ -20984,28 +20984,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>878.7260446085967</v>
+        <v>957.2226236748295</v>
       </c>
       <c r="AB4" t="n">
-        <v>1202.311740890557</v>
+        <v>1309.714223393637</v>
       </c>
       <c r="AC4" t="n">
-        <v>1087.564795795088</v>
+        <v>1184.716936108405</v>
       </c>
       <c r="AD4" t="n">
-        <v>878726.0446085967</v>
+        <v>957222.6236748295</v>
       </c>
       <c r="AE4" t="n">
-        <v>1202311.740890557</v>
+        <v>1309714.223393637</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.862141477291901e-06</v>
+        <v>2.856053436754269e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1087564.795795088</v>
+        <v>1184716.936108405</v>
       </c>
     </row>
     <row r="5">
@@ -21090,28 +21090,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>799.5765666439163</v>
+        <v>877.9878048555776</v>
       </c>
       <c r="AB5" t="n">
-        <v>1094.015933310755</v>
+        <v>1201.301648691637</v>
       </c>
       <c r="AC5" t="n">
-        <v>989.6045880965819</v>
+        <v>1086.65110537796</v>
       </c>
       <c r="AD5" t="n">
-        <v>799576.5666439163</v>
+        <v>877987.8048555775</v>
       </c>
       <c r="AE5" t="n">
-        <v>1094015.933310755</v>
+        <v>1201301.648691637</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.925776106399322e-06</v>
+        <v>2.95365284226407e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.92708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>989604.5880965819</v>
+        <v>1086651.10537796</v>
       </c>
     </row>
     <row r="6">
@@ -21196,28 +21196,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>780.1682357361551</v>
+        <v>850.891963664879</v>
       </c>
       <c r="AB6" t="n">
-        <v>1067.460598727626</v>
+        <v>1164.227923390376</v>
       </c>
       <c r="AC6" t="n">
-        <v>965.5836573754208</v>
+        <v>1053.115644386151</v>
       </c>
       <c r="AD6" t="n">
-        <v>780168.2357361551</v>
+        <v>850891.963664879</v>
       </c>
       <c r="AE6" t="n">
-        <v>1067460.598727626</v>
+        <v>1164227.923390376</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.942844769935948e-06</v>
+        <v>2.979831849471127e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.77083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>965583.6573754208</v>
+        <v>1053115.644386151</v>
       </c>
     </row>
     <row r="7">
@@ -21302,28 +21302,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>783.1429794117158</v>
+        <v>853.8667073404397</v>
       </c>
       <c r="AB7" t="n">
-        <v>1071.530774260957</v>
+        <v>1168.298098923707</v>
       </c>
       <c r="AC7" t="n">
-        <v>969.265381068378</v>
+        <v>1056.797368079108</v>
       </c>
       <c r="AD7" t="n">
-        <v>783142.9794117159</v>
+        <v>853866.7073404397</v>
       </c>
       <c r="AE7" t="n">
-        <v>1071530.774260957</v>
+        <v>1168298.098923707</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.944667636915587e-06</v>
+        <v>2.982627665774792e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.75416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>969265.381068378</v>
+        <v>1056797.368079108</v>
       </c>
     </row>
   </sheetData>
@@ -39684,28 +39684,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1194.700294503417</v>
+        <v>1286.548823383921</v>
       </c>
       <c r="AB2" t="n">
-        <v>1634.641649396734</v>
+        <v>1760.312858682154</v>
       </c>
       <c r="AC2" t="n">
-        <v>1478.633744612273</v>
+        <v>1592.311070064142</v>
       </c>
       <c r="AD2" t="n">
-        <v>1194700.294503417</v>
+        <v>1286548.823383922</v>
       </c>
       <c r="AE2" t="n">
-        <v>1634641.649396734</v>
+        <v>1760312.858682154</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.542308241777752e-06</v>
+        <v>2.409826205183877e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1478633.744612273</v>
+        <v>1592311.070064142</v>
       </c>
     </row>
     <row r="3">
@@ -39790,28 +39790,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>824.8366799479729</v>
+        <v>893.8511102673467</v>
       </c>
       <c r="AB3" t="n">
-        <v>1128.577934730914</v>
+        <v>1223.006522995662</v>
       </c>
       <c r="AC3" t="n">
-        <v>1020.868040609275</v>
+        <v>1106.284496941391</v>
       </c>
       <c r="AD3" t="n">
-        <v>824836.6799479729</v>
+        <v>893851.1102673467</v>
       </c>
       <c r="AE3" t="n">
-        <v>1128577.934730914</v>
+        <v>1223006.522995662</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.875043631050912e-06</v>
+        <v>2.929718687596004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.04583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1020868.040609275</v>
+        <v>1106284.496941391</v>
       </c>
     </row>
     <row r="4">
@@ -39896,28 +39896,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>727.288498975005</v>
+        <v>796.2175884398072</v>
       </c>
       <c r="AB4" t="n">
-        <v>995.1082100016819</v>
+        <v>1089.420031144233</v>
       </c>
       <c r="AC4" t="n">
-        <v>900.1364790822653</v>
+        <v>985.4473123824433</v>
       </c>
       <c r="AD4" t="n">
-        <v>727288.498975005</v>
+        <v>796217.5884398072</v>
       </c>
       <c r="AE4" t="n">
-        <v>995108.2100016818</v>
+        <v>1089420.031144233</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.972412874279739e-06</v>
+        <v>3.081856209497131e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.10625</v>
       </c>
       <c r="AH4" t="n">
-        <v>900136.4790822653</v>
+        <v>985447.3123824433</v>
       </c>
     </row>
     <row r="5">
@@ -40002,28 +40002,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>726.7546526410696</v>
+        <v>795.6837421058718</v>
       </c>
       <c r="AB5" t="n">
-        <v>994.3777778959534</v>
+        <v>1088.689599038505</v>
       </c>
       <c r="AC5" t="n">
-        <v>899.4757583915396</v>
+        <v>984.7865916917177</v>
       </c>
       <c r="AD5" t="n">
-        <v>726754.6526410696</v>
+        <v>795683.7421058718</v>
       </c>
       <c r="AE5" t="n">
-        <v>994377.7778959534</v>
+        <v>1088689.599038505</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.977212766551583e-06</v>
+        <v>3.089355946492257e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.0625</v>
       </c>
       <c r="AH5" t="n">
-        <v>899475.7583915396</v>
+        <v>984786.5916917177</v>
       </c>
     </row>
   </sheetData>
@@ -40299,28 +40299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>635.1848782981448</v>
+        <v>708.1024398897919</v>
       </c>
       <c r="AB2" t="n">
-        <v>869.0879728666328</v>
+        <v>968.8569975321043</v>
       </c>
       <c r="AC2" t="n">
-        <v>786.1434365088713</v>
+        <v>876.390645486976</v>
       </c>
       <c r="AD2" t="n">
-        <v>635184.8782981448</v>
+        <v>708102.4398897919</v>
       </c>
       <c r="AE2" t="n">
-        <v>869087.9728666327</v>
+        <v>968856.9975321043</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.942945194959302e-06</v>
+        <v>3.166371412138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.72916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>786143.4365088714</v>
+        <v>876390.645486976</v>
       </c>
     </row>
     <row r="3">
@@ -40405,28 +40405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>616.7650168601183</v>
+        <v>689.5119862511731</v>
       </c>
       <c r="AB3" t="n">
-        <v>843.8851058201903</v>
+        <v>943.4207187108151</v>
       </c>
       <c r="AC3" t="n">
-        <v>763.3458957208957</v>
+        <v>853.3819694163491</v>
       </c>
       <c r="AD3" t="n">
-        <v>616765.0168601183</v>
+        <v>689511.9862511731</v>
       </c>
       <c r="AE3" t="n">
-        <v>843885.1058201904</v>
+        <v>943420.7187108151</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.982319273720788e-06</v>
+        <v>3.230538408558221e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.3375</v>
       </c>
       <c r="AH3" t="n">
-        <v>763345.8957208956</v>
+        <v>853381.9694163491</v>
       </c>
     </row>
   </sheetData>
@@ -40702,28 +40702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3287.327280588191</v>
+        <v>3428.294355108931</v>
       </c>
       <c r="AB2" t="n">
-        <v>4497.866211945174</v>
+        <v>4690.743582332871</v>
       </c>
       <c r="AC2" t="n">
-        <v>4068.596173471833</v>
+        <v>4243.065598334811</v>
       </c>
       <c r="AD2" t="n">
-        <v>3287327.280588191</v>
+        <v>3428294.355108931</v>
       </c>
       <c r="AE2" t="n">
-        <v>4497866.211945173</v>
+        <v>4690743.582332872</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.38143773564902e-07</v>
+        <v>1.38599560317787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.17083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4068596.173471833</v>
+        <v>4243065.598334811</v>
       </c>
     </row>
     <row r="3">
@@ -40808,28 +40808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1617.48543327038</v>
+        <v>1716.966440086463</v>
       </c>
       <c r="AB3" t="n">
-        <v>2213.114928221625</v>
+        <v>2349.229230539665</v>
       </c>
       <c r="AC3" t="n">
-        <v>2001.898345598463</v>
+        <v>2125.022089940891</v>
       </c>
       <c r="AD3" t="n">
-        <v>1617485.43327038</v>
+        <v>1716966.440086463</v>
       </c>
       <c r="AE3" t="n">
-        <v>2213114.928221625</v>
+        <v>2349229.230539665</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.418063476656411e-06</v>
+        <v>2.095019760355461e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.60625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2001898.345598463</v>
+        <v>2125022.089940892</v>
       </c>
     </row>
     <row r="4">
@@ -40914,28 +40914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1334.53711886052</v>
+        <v>1417.423823906712</v>
       </c>
       <c r="AB4" t="n">
-        <v>1825.972561647415</v>
+        <v>1939.381808194963</v>
       </c>
       <c r="AC4" t="n">
-        <v>1651.704303132371</v>
+        <v>1754.289930360299</v>
       </c>
       <c r="AD4" t="n">
-        <v>1334537.11886052</v>
+        <v>1417423.823906712</v>
       </c>
       <c r="AE4" t="n">
-        <v>1825972.561647415</v>
+        <v>1939381.808194963</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.587474054759569e-06</v>
+        <v>2.345303696569802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.19375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1651704.303132371</v>
+        <v>1754289.930360299</v>
       </c>
     </row>
     <row r="5">
@@ -41020,28 +41020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1206.970067296635</v>
+        <v>1281.644917558177</v>
       </c>
       <c r="AB5" t="n">
-        <v>1651.429693836587</v>
+        <v>1753.603118386314</v>
       </c>
       <c r="AC5" t="n">
-        <v>1493.819561652955</v>
+        <v>1586.241697964958</v>
       </c>
       <c r="AD5" t="n">
-        <v>1206970.067296635</v>
+        <v>1281644.917558177</v>
       </c>
       <c r="AE5" t="n">
-        <v>1651429.693836587</v>
+        <v>1753603.118386314</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.677333979929637e-06</v>
+        <v>2.478061025133993e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.1125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1493819.561652955</v>
+        <v>1586241.697964958</v>
       </c>
     </row>
     <row r="6">
@@ -41126,28 +41126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1129.30955768763</v>
+        <v>1212.19617322527</v>
       </c>
       <c r="AB6" t="n">
-        <v>1545.171158449667</v>
+        <v>1658.580282527667</v>
       </c>
       <c r="AC6" t="n">
-        <v>1397.702191748572</v>
+        <v>1500.287708195273</v>
       </c>
       <c r="AD6" t="n">
-        <v>1129309.55768763</v>
+        <v>1212196.17322527</v>
       </c>
       <c r="AE6" t="n">
-        <v>1545171.158449667</v>
+        <v>1658580.282527667</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.731496126607486e-06</v>
+        <v>2.558079140980903e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.51458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1397702.191748572</v>
+        <v>1500287.708195273</v>
       </c>
     </row>
     <row r="7">
@@ -41232,28 +41232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1081.747285437188</v>
+        <v>1156.336794844158</v>
       </c>
       <c r="AB7" t="n">
-        <v>1480.094359257251</v>
+        <v>1582.15101668478</v>
       </c>
       <c r="AC7" t="n">
-        <v>1338.836230935219</v>
+        <v>1431.152744215283</v>
       </c>
       <c r="AD7" t="n">
-        <v>1081747.285437188</v>
+        <v>1156336.794844158</v>
       </c>
       <c r="AE7" t="n">
-        <v>1480094.359257251</v>
+        <v>1582151.01668478</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.766732295895064e-06</v>
+        <v>2.610136381119944e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.14583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1338836.230935219</v>
+        <v>1431152.744215283</v>
       </c>
     </row>
     <row r="8">
@@ -41338,28 +41338,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1029.802321328387</v>
+        <v>1112.603596011456</v>
       </c>
       <c r="AB8" t="n">
-        <v>1409.02096771351</v>
+        <v>1522.313324669313</v>
       </c>
       <c r="AC8" t="n">
-        <v>1274.545984128281</v>
+        <v>1377.025877543043</v>
       </c>
       <c r="AD8" t="n">
-        <v>1029802.321328387</v>
+        <v>1112603.596011456</v>
       </c>
       <c r="AE8" t="n">
-        <v>1409020.96771351</v>
+        <v>1522313.324669313</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.79473658764327e-06</v>
+        <v>2.65150938419988e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.8625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1274545.984128281</v>
+        <v>1377025.877543043</v>
       </c>
     </row>
     <row r="9">
@@ -41444,28 +41444,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>994.7931779692886</v>
+        <v>1069.467938722279</v>
       </c>
       <c r="AB9" t="n">
-        <v>1361.119913275191</v>
+        <v>1463.29321535537</v>
       </c>
       <c r="AC9" t="n">
-        <v>1231.216539096003</v>
+        <v>1323.638564626779</v>
       </c>
       <c r="AD9" t="n">
-        <v>994793.1779692887</v>
+        <v>1069467.938722279</v>
       </c>
       <c r="AE9" t="n">
-        <v>1361119.913275192</v>
+        <v>1463293.21535537</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.815970611056745e-06</v>
+        <v>2.682880122798953e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.65208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1231216.539096003</v>
+        <v>1323638.564626779</v>
       </c>
     </row>
     <row r="10">
@@ -41550,28 +41550,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>965.7138469201172</v>
+        <v>1040.388607673108</v>
       </c>
       <c r="AB10" t="n">
-        <v>1321.332289644171</v>
+        <v>1423.505591724349</v>
       </c>
       <c r="AC10" t="n">
-        <v>1195.226190422047</v>
+        <v>1287.648215952823</v>
       </c>
       <c r="AD10" t="n">
-        <v>965713.8469201173</v>
+        <v>1040388.607673108</v>
       </c>
       <c r="AE10" t="n">
-        <v>1321332.289644171</v>
+        <v>1423505.591724349</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.829972756930848e-06</v>
+        <v>2.703566624338921e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.51666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1195226.190422047</v>
+        <v>1287648.215952823</v>
       </c>
     </row>
     <row r="11">
@@ -41656,28 +41656,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>947.7984303997504</v>
+        <v>1022.302598952149</v>
       </c>
       <c r="AB11" t="n">
-        <v>1296.81962638861</v>
+        <v>1398.759516693941</v>
       </c>
       <c r="AC11" t="n">
-        <v>1173.052981343857</v>
+        <v>1265.263871591982</v>
       </c>
       <c r="AD11" t="n">
-        <v>947798.4303997504</v>
+        <v>1022302.598952149</v>
       </c>
       <c r="AE11" t="n">
-        <v>1296819.62638861</v>
+        <v>1398759.516693941</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.839512680493424e-06</v>
+        <v>2.717660724289229e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.425</v>
       </c>
       <c r="AH11" t="n">
-        <v>1173052.981343857</v>
+        <v>1265263.871591982</v>
       </c>
     </row>
     <row r="12">
@@ -41762,28 +41762,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>942.5510203139519</v>
+        <v>1017.055188866351</v>
       </c>
       <c r="AB12" t="n">
-        <v>1289.639888409826</v>
+        <v>1391.579778715157</v>
       </c>
       <c r="AC12" t="n">
-        <v>1166.558467480943</v>
+        <v>1258.769357729068</v>
       </c>
       <c r="AD12" t="n">
-        <v>942551.0203139519</v>
+        <v>1017055.188866351</v>
       </c>
       <c r="AE12" t="n">
-        <v>1289639.888409826</v>
+        <v>1391579.778715157</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.842436205456148e-06</v>
+        <v>2.72197988395142e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.4</v>
       </c>
       <c r="AH12" t="n">
-        <v>1166558.467480943</v>
+        <v>1258769.357729068</v>
       </c>
     </row>
     <row r="13">
@@ -41868,28 +41868,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>947.1085977522115</v>
+        <v>1021.61276630461</v>
       </c>
       <c r="AB13" t="n">
-        <v>1295.875766926979</v>
+        <v>1397.81565723231</v>
       </c>
       <c r="AC13" t="n">
-        <v>1172.199202504529</v>
+        <v>1264.410092752654</v>
       </c>
       <c r="AD13" t="n">
-        <v>947108.5977522115</v>
+        <v>1021612.76630461</v>
       </c>
       <c r="AE13" t="n">
-        <v>1295875.766926979</v>
+        <v>1397815.65723231</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.842436205456148e-06</v>
+        <v>2.72197988395142e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.4</v>
       </c>
       <c r="AH13" t="n">
-        <v>1172199.202504529</v>
+        <v>1264410.092752654</v>
       </c>
     </row>
   </sheetData>
@@ -42165,28 +42165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5282.641191002172</v>
+        <v>5470.193472643146</v>
       </c>
       <c r="AB2" t="n">
-        <v>7227.942731210828</v>
+        <v>7484.560037174726</v>
       </c>
       <c r="AC2" t="n">
-        <v>6538.118021425129</v>
+        <v>6770.244131872474</v>
       </c>
       <c r="AD2" t="n">
-        <v>5282641.191002172</v>
+        <v>5470193.472643146</v>
       </c>
       <c r="AE2" t="n">
-        <v>7227942.731210828</v>
+        <v>7484560.037174726</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.253552971450456e-07</v>
+        <v>1.053338487836267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.58541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6538118.021425129</v>
+        <v>6770244.131872474</v>
       </c>
     </row>
     <row r="3">
@@ -42271,28 +42271,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2070.262979583486</v>
+        <v>2181.054415658101</v>
       </c>
       <c r="AB3" t="n">
-        <v>2832.625142222786</v>
+        <v>2984.214872833272</v>
       </c>
       <c r="AC3" t="n">
-        <v>2562.283374263399</v>
+        <v>2699.405593741943</v>
       </c>
       <c r="AD3" t="n">
-        <v>2070262.979583486</v>
+        <v>2181054.415658101</v>
       </c>
       <c r="AE3" t="n">
-        <v>2832625.142222786</v>
+        <v>2984214.872833272</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.254840940257261e-06</v>
+        <v>1.822241132984123e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.61875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2562283.374263399</v>
+        <v>2699405.593741943</v>
       </c>
     </row>
     <row r="4">
@@ -42377,28 +42377,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1638.047424034783</v>
+        <v>1731.695643081964</v>
       </c>
       <c r="AB4" t="n">
-        <v>2241.248751116493</v>
+        <v>2369.382375884685</v>
       </c>
       <c r="AC4" t="n">
-        <v>2027.347115922312</v>
+        <v>2143.251847379301</v>
       </c>
       <c r="AD4" t="n">
-        <v>1638047.424034783</v>
+        <v>1731695.643081964</v>
       </c>
       <c r="AE4" t="n">
-        <v>2241248.751116493</v>
+        <v>2369382.375884685</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.446558928648214e-06</v>
+        <v>2.10064805546415e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.35416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2027347.115922312</v>
+        <v>2143251.847379301</v>
       </c>
     </row>
     <row r="5">
@@ -42483,28 +42483,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1455.787341538751</v>
+        <v>1549.435471077381</v>
       </c>
       <c r="AB5" t="n">
-        <v>1991.872465498068</v>
+        <v>2120.005967796713</v>
       </c>
       <c r="AC5" t="n">
-        <v>1801.770953001496</v>
+        <v>1917.675573677258</v>
       </c>
       <c r="AD5" t="n">
-        <v>1455787.341538751</v>
+        <v>1549435.471077381</v>
       </c>
       <c r="AE5" t="n">
-        <v>1991872.465498068</v>
+        <v>2120005.967796713</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.547829915555423e-06</v>
+        <v>2.24771064483295e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.95625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1801770.953001496</v>
+        <v>1917675.573677258</v>
       </c>
     </row>
     <row r="6">
@@ -42589,28 +42589,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1362.886345664612</v>
+        <v>1448.005581871086</v>
       </c>
       <c r="AB6" t="n">
-        <v>1864.761224440392</v>
+        <v>1981.225118613763</v>
       </c>
       <c r="AC6" t="n">
-        <v>1686.791030388616</v>
+        <v>1792.139773960183</v>
       </c>
       <c r="AD6" t="n">
-        <v>1362886.345664612</v>
+        <v>1448005.581871086</v>
       </c>
       <c r="AE6" t="n">
-        <v>1864761.224440392</v>
+        <v>1981225.118613763</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.610549721502348e-06</v>
+        <v>2.338790403695326e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.17916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1686791.030388616</v>
+        <v>1792139.773960183</v>
       </c>
     </row>
     <row r="7">
@@ -42695,28 +42695,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1294.248695402685</v>
+        <v>1379.453182955179</v>
       </c>
       <c r="AB7" t="n">
-        <v>1770.848163272604</v>
+        <v>1887.428702098625</v>
       </c>
       <c r="AC7" t="n">
-        <v>1601.840899970874</v>
+        <v>1707.295155793152</v>
       </c>
       <c r="AD7" t="n">
-        <v>1294248.695402685</v>
+        <v>1379453.182955179</v>
       </c>
       <c r="AE7" t="n">
-        <v>1770848.163272604</v>
+        <v>1887428.702098625</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.65221465169404e-06</v>
+        <v>2.399294924358039e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.69583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1601840.899970873</v>
+        <v>1707295.155793152</v>
       </c>
     </row>
     <row r="8">
@@ -42801,28 +42801,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1250.751130762272</v>
+        <v>1327.426724982612</v>
       </c>
       <c r="AB8" t="n">
-        <v>1711.332876354475</v>
+        <v>1816.243807055222</v>
       </c>
       <c r="AC8" t="n">
-        <v>1548.00566850598</v>
+        <v>1642.904047224064</v>
       </c>
       <c r="AD8" t="n">
-        <v>1250751.130762272</v>
+        <v>1327426.724982612</v>
       </c>
       <c r="AE8" t="n">
-        <v>1711332.876354475</v>
+        <v>1816243.807055222</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.682610775143495e-06</v>
+        <v>2.443435233026566e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.35833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1548005.66850598</v>
+        <v>1642904.047224064</v>
       </c>
     </row>
     <row r="9">
@@ -42907,28 +42907,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1213.31122093991</v>
+        <v>1289.986815160249</v>
       </c>
       <c r="AB9" t="n">
-        <v>1660.105940003271</v>
+        <v>1765.016870704017</v>
       </c>
       <c r="AC9" t="n">
-        <v>1501.667759062678</v>
+        <v>1596.566137780762</v>
       </c>
       <c r="AD9" t="n">
-        <v>1213311.22093991</v>
+        <v>1289986.815160249</v>
       </c>
       <c r="AE9" t="n">
-        <v>1660105.940003271</v>
+        <v>1765016.870704018</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.706482852584287e-06</v>
+        <v>2.478101524224775e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.10208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1501667.759062678</v>
+        <v>1596566.137780762</v>
       </c>
     </row>
     <row r="10">
@@ -43013,28 +43013,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1171.660666911373</v>
+        <v>1256.779813609296</v>
       </c>
       <c r="AB10" t="n">
-        <v>1603.117814488667</v>
+        <v>1719.581586192489</v>
       </c>
       <c r="AC10" t="n">
-        <v>1450.118500263851</v>
+        <v>1555.467133054191</v>
       </c>
       <c r="AD10" t="n">
-        <v>1171660.666911373</v>
+        <v>1256779.813609296</v>
       </c>
       <c r="AE10" t="n">
-        <v>1603117.814488667</v>
+        <v>1719581.586192489</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.725165347972732e-06</v>
+        <v>2.505231665162504e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.90625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1450118.500263851</v>
+        <v>1555467.133054191</v>
       </c>
     </row>
     <row r="11">
@@ -43119,28 +43119,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1146.460183080717</v>
+        <v>1223.221028647077</v>
       </c>
       <c r="AB11" t="n">
-        <v>1568.637400744681</v>
+        <v>1673.664976098078</v>
       </c>
       <c r="AC11" t="n">
-        <v>1418.928848814028</v>
+        <v>1513.932739782824</v>
       </c>
       <c r="AD11" t="n">
-        <v>1146460.183080717</v>
+        <v>1223221.028647077</v>
       </c>
       <c r="AE11" t="n">
-        <v>1568637.400744681</v>
+        <v>1673664.976098078</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.739399630173453e-06</v>
+        <v>2.525902248734107e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.75833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1418928.848814028</v>
+        <v>1513932.739782824</v>
       </c>
     </row>
     <row r="12">
@@ -43225,28 +43225,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1120.347634556876</v>
+        <v>1197.108480123235</v>
       </c>
       <c r="AB12" t="n">
-        <v>1532.909059850024</v>
+        <v>1637.936635203421</v>
       </c>
       <c r="AC12" t="n">
-        <v>1386.610370629315</v>
+        <v>1481.614261598111</v>
       </c>
       <c r="AD12" t="n">
-        <v>1120347.634556876</v>
+        <v>1197108.480123235</v>
       </c>
       <c r="AE12" t="n">
-        <v>1532909.059850024</v>
+        <v>1637936.635203421</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.753485638601249e-06</v>
+        <v>2.546357513726839e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.61666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1386610.370629315</v>
+        <v>1481614.261598111</v>
       </c>
     </row>
     <row r="13">
@@ -43331,28 +43331,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1096.176722913109</v>
+        <v>1172.937568479468</v>
       </c>
       <c r="AB13" t="n">
-        <v>1499.83735219366</v>
+        <v>1604.864927547056</v>
       </c>
       <c r="AC13" t="n">
-        <v>1356.694980335241</v>
+        <v>1451.698871304037</v>
       </c>
       <c r="AD13" t="n">
-        <v>1096176.722913109</v>
+        <v>1172937.568479468</v>
       </c>
       <c r="AE13" t="n">
-        <v>1499837.35219366</v>
+        <v>1604864.927547056</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.763419981387168e-06</v>
+        <v>2.560783858511187e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.51666666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1356694.980335241</v>
+        <v>1451698.871304037</v>
       </c>
     </row>
     <row r="14">
@@ -43437,28 +43437,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1075.360360919155</v>
+        <v>1151.950614284923</v>
       </c>
       <c r="AB14" t="n">
-        <v>1471.355487360455</v>
+        <v>1576.149650939005</v>
       </c>
       <c r="AC14" t="n">
-        <v>1330.931384707169</v>
+        <v>1425.724140393314</v>
       </c>
       <c r="AD14" t="n">
-        <v>1075360.360919155</v>
+        <v>1151950.614284923</v>
       </c>
       <c r="AE14" t="n">
-        <v>1471355.487360455</v>
+        <v>1576149.650939005</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.771278491352149e-06</v>
+        <v>2.572195743191343e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.43958333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1330931.384707169</v>
+        <v>1425724.140393314</v>
       </c>
     </row>
     <row r="15">
@@ -43543,28 +43543,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1059.175761317614</v>
+        <v>1135.766014683382</v>
       </c>
       <c r="AB15" t="n">
-        <v>1449.211004171486</v>
+        <v>1554.005167750035</v>
       </c>
       <c r="AC15" t="n">
-        <v>1310.900339913777</v>
+        <v>1405.693095599922</v>
       </c>
       <c r="AD15" t="n">
-        <v>1059175.761317614</v>
+        <v>1135766.014683382</v>
       </c>
       <c r="AE15" t="n">
-        <v>1449211.004171486</v>
+        <v>1554005.167750035</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.778840453771282e-06</v>
+        <v>2.583176990713756e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.36458333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1310900.339913777</v>
+        <v>1405693.095599922</v>
       </c>
     </row>
     <row r="16">
@@ -43649,28 +43649,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1048.066850207397</v>
+        <v>1124.657103573165</v>
       </c>
       <c r="AB16" t="n">
-        <v>1434.011301899917</v>
+        <v>1538.805465478466</v>
       </c>
       <c r="AC16" t="n">
-        <v>1297.151275894091</v>
+        <v>1391.944031580236</v>
       </c>
       <c r="AD16" t="n">
-        <v>1048066.850207397</v>
+        <v>1124657.103573165</v>
       </c>
       <c r="AE16" t="n">
-        <v>1434011.301899917</v>
+        <v>1538805.465478466</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.781805929229766e-06</v>
+        <v>2.587483362291174e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.3375</v>
       </c>
       <c r="AH16" t="n">
-        <v>1297151.275894091</v>
+        <v>1391944.031580236</v>
       </c>
     </row>
     <row r="17">
@@ -43755,28 +43755,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1047.033957236574</v>
+        <v>1123.624210602342</v>
       </c>
       <c r="AB17" t="n">
-        <v>1432.598052169215</v>
+        <v>1537.392215747765</v>
       </c>
       <c r="AC17" t="n">
-        <v>1295.872904734179</v>
+        <v>1390.665660420324</v>
       </c>
       <c r="AD17" t="n">
-        <v>1047033.957236574</v>
+        <v>1123624.210602342</v>
       </c>
       <c r="AE17" t="n">
-        <v>1432598.052169215</v>
+        <v>1537392.215747765</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.783436940731931e-06</v>
+        <v>2.589851866658754e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.32083333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1295872.904734179</v>
+        <v>1390665.660420324</v>
       </c>
     </row>
     <row r="18">
@@ -43861,28 +43861,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1051.518852954998</v>
+        <v>1128.109106320765</v>
       </c>
       <c r="AB18" t="n">
-        <v>1438.734484350797</v>
+        <v>1543.528647929347</v>
       </c>
       <c r="AC18" t="n">
-        <v>1301.423684440888</v>
+        <v>1396.216440127032</v>
       </c>
       <c r="AD18" t="n">
-        <v>1051518.852954998</v>
+        <v>1128109.106320765</v>
       </c>
       <c r="AE18" t="n">
-        <v>1438734.484350797</v>
+        <v>1543528.647929347</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.783288666959007e-06</v>
+        <v>2.589636548079883e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.32083333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1301423.684440888</v>
+        <v>1396216.440127032</v>
       </c>
     </row>
     <row r="19">
@@ -43967,28 +43967,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1055.898844551253</v>
+        <v>1132.48909791702</v>
       </c>
       <c r="AB19" t="n">
-        <v>1444.727382084385</v>
+        <v>1549.521545662934</v>
       </c>
       <c r="AC19" t="n">
-        <v>1306.844628425867</v>
+        <v>1401.637384112012</v>
       </c>
       <c r="AD19" t="n">
-        <v>1055898.844551253</v>
+        <v>1132489.09791702</v>
       </c>
       <c r="AE19" t="n">
-        <v>1444727.382084385</v>
+        <v>1549521.545662934</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.783288666959007e-06</v>
+        <v>2.589636548079883e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.32291666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1306844.628425867</v>
+        <v>1401637.384112012</v>
       </c>
     </row>
   </sheetData>
@@ -44264,28 +44264,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>565.1183103861597</v>
+        <v>643.3052732044603</v>
       </c>
       <c r="AB2" t="n">
-        <v>773.2198035306386</v>
+        <v>880.1986554239928</v>
       </c>
       <c r="AC2" t="n">
-        <v>699.4247907024838</v>
+        <v>796.1937311168981</v>
       </c>
       <c r="AD2" t="n">
-        <v>565118.3103861597</v>
+        <v>643305.2732044603</v>
       </c>
       <c r="AE2" t="n">
-        <v>773219.8035306386</v>
+        <v>880198.6554239928</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.912661522134147e-06</v>
+        <v>3.188292802856849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.75416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>699424.7907024838</v>
+        <v>796193.7311168981</v>
       </c>
     </row>
   </sheetData>
@@ -44561,28 +44561,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1811.553584739881</v>
+        <v>1922.663817546732</v>
       </c>
       <c r="AB2" t="n">
-        <v>2478.647534744786</v>
+        <v>2630.673457108636</v>
       </c>
       <c r="AC2" t="n">
-        <v>2242.088892832407</v>
+        <v>2379.605674535574</v>
       </c>
       <c r="AD2" t="n">
-        <v>1811553.584739881</v>
+        <v>1922663.817546732</v>
       </c>
       <c r="AE2" t="n">
-        <v>2478647.534744786</v>
+        <v>2630673.457108636</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.271778411417949e-06</v>
+        <v>1.935527985699862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.75208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2242088.892832407</v>
+        <v>2379605.674535573</v>
       </c>
     </row>
     <row r="3">
@@ -44667,28 +44667,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1119.169439829539</v>
+        <v>1198.509598241677</v>
       </c>
       <c r="AB3" t="n">
-        <v>1531.2970018458</v>
+        <v>1639.853706826041</v>
       </c>
       <c r="AC3" t="n">
-        <v>1385.152165178476</v>
+        <v>1483.348370595696</v>
       </c>
       <c r="AD3" t="n">
-        <v>1119169.439829539</v>
+        <v>1198509.598241677</v>
       </c>
       <c r="AE3" t="n">
-        <v>1531297.0018458</v>
+        <v>1639853.706826041</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.671536186347473e-06</v>
+        <v>2.543921990449895e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.35208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1385152.165178476</v>
+        <v>1483348.370595696</v>
       </c>
     </row>
     <row r="4">
@@ -44773,28 +44773,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>955.0586828138977</v>
+        <v>1034.398751717485</v>
       </c>
       <c r="AB4" t="n">
-        <v>1306.753424041378</v>
+        <v>1415.310006552071</v>
       </c>
       <c r="AC4" t="n">
-        <v>1182.038711290817</v>
+        <v>1280.234805926811</v>
       </c>
       <c r="AD4" t="n">
-        <v>955058.6828138977</v>
+        <v>1034398.751717485</v>
       </c>
       <c r="AE4" t="n">
-        <v>1306753.424041378</v>
+        <v>1415310.006552071</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.808544672117845e-06</v>
+        <v>2.752436112175907e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.81041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1182038.711290817</v>
+        <v>1280234.805926811</v>
       </c>
     </row>
     <row r="5">
@@ -44879,28 +44879,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>876.719560334345</v>
+        <v>948.1171777706674</v>
       </c>
       <c r="AB5" t="n">
-        <v>1199.566380586688</v>
+        <v>1297.25575060364</v>
       </c>
       <c r="AC5" t="n">
-        <v>1085.081448825483</v>
+        <v>1173.44748247591</v>
       </c>
       <c r="AD5" t="n">
-        <v>876719.560334345</v>
+        <v>948117.1777706674</v>
       </c>
       <c r="AE5" t="n">
-        <v>1199566.380586687</v>
+        <v>1297255.75060364</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.877620464109344e-06</v>
+        <v>2.85756301740845e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.11875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1085081.448825483</v>
+        <v>1173447.482475909</v>
       </c>
     </row>
     <row r="6">
@@ -44985,28 +44985,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>819.0513440504805</v>
+        <v>890.5342128328234</v>
       </c>
       <c r="AB6" t="n">
-        <v>1120.662182924958</v>
+        <v>1218.46819759456</v>
       </c>
       <c r="AC6" t="n">
-        <v>1013.707757045852</v>
+        <v>1102.179302946991</v>
       </c>
       <c r="AD6" t="n">
-        <v>819051.3440504804</v>
+        <v>890534.2128328234</v>
       </c>
       <c r="AE6" t="n">
-        <v>1120662.182924958</v>
+        <v>1218468.19759456</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.918282100529872e-06</v>
+        <v>2.919446231126897e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.73541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1013707.757045852</v>
+        <v>1102179.302946991</v>
       </c>
     </row>
     <row r="7">
@@ -45091,28 +45091,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>807.61032674682</v>
+        <v>879.0931955291629</v>
       </c>
       <c r="AB7" t="n">
-        <v>1105.00807830803</v>
+        <v>1202.814092977631</v>
       </c>
       <c r="AC7" t="n">
-        <v>999.5476582028888</v>
+        <v>1088.019204104028</v>
       </c>
       <c r="AD7" t="n">
-        <v>807610.32674682</v>
+        <v>879093.1955291629</v>
       </c>
       <c r="AE7" t="n">
-        <v>1105008.07830803</v>
+        <v>1202814.092977631</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.925630589039606e-06</v>
+        <v>2.930629944449508e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>999547.6582028888</v>
+        <v>1088019.204104028</v>
       </c>
     </row>
     <row r="8">
@@ -45197,28 +45197,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>812.070222234531</v>
+        <v>883.5530910168739</v>
       </c>
       <c r="AB8" t="n">
-        <v>1111.110304071018</v>
+        <v>1208.91631874062</v>
       </c>
       <c r="AC8" t="n">
-        <v>1005.067496103585</v>
+        <v>1093.539042004724</v>
       </c>
       <c r="AD8" t="n">
-        <v>812070.222234531</v>
+        <v>883553.0910168738</v>
       </c>
       <c r="AE8" t="n">
-        <v>1111110.304071018</v>
+        <v>1208916.31874062</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.925630589039606e-06</v>
+        <v>2.930629944449508e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1005067.496103585</v>
+        <v>1093539.042004724</v>
       </c>
     </row>
   </sheetData>
@@ -45494,28 +45494,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2602.178347185132</v>
+        <v>2732.752544779059</v>
       </c>
       <c r="AB2" t="n">
-        <v>3560.4152146254</v>
+        <v>3739.072592300463</v>
       </c>
       <c r="AC2" t="n">
-        <v>3220.614183615557</v>
+        <v>3382.220751912508</v>
       </c>
       <c r="AD2" t="n">
-        <v>2602178.347185132</v>
+        <v>2732752.544779059</v>
       </c>
       <c r="AE2" t="n">
-        <v>3560415.2146254</v>
+        <v>3739072.592300463</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.059680672638955e-06</v>
+        <v>1.582008608430436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.91041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3220614.183615556</v>
+        <v>3382220.751912508</v>
       </c>
     </row>
     <row r="3">
@@ -45600,28 +45600,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1411.742414108282</v>
+        <v>1501.570846791625</v>
       </c>
       <c r="AB3" t="n">
-        <v>1931.608252662643</v>
+        <v>2054.515477210751</v>
       </c>
       <c r="AC3" t="n">
-        <v>1747.258272057729</v>
+        <v>1858.435403596339</v>
       </c>
       <c r="AD3" t="n">
-        <v>1411742.414108282</v>
+        <v>1501570.846791625</v>
       </c>
       <c r="AE3" t="n">
-        <v>1931608.252662643</v>
+        <v>2054515.477210751</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.510438015139828e-06</v>
+        <v>2.254949065458634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.68541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1747258.272057729</v>
+        <v>1858435.40359634</v>
       </c>
     </row>
     <row r="4">
@@ -45706,28 +45706,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1181.178640282097</v>
+        <v>1262.840851812409</v>
       </c>
       <c r="AB4" t="n">
-        <v>1616.140725557841</v>
+        <v>1727.874566056121</v>
       </c>
       <c r="AC4" t="n">
-        <v>1461.898522978354</v>
+        <v>1562.968642558909</v>
       </c>
       <c r="AD4" t="n">
-        <v>1181178.640282097</v>
+        <v>1262840.851812409</v>
       </c>
       <c r="AE4" t="n">
-        <v>1616140.725557841</v>
+        <v>1727874.566056121</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.668604002777037e-06</v>
+        <v>2.491076759832673e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.62916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1461898.522978354</v>
+        <v>1562968.642558909</v>
       </c>
     </row>
     <row r="5">
@@ -45812,28 +45812,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1073.972309020371</v>
+        <v>1155.549179696111</v>
       </c>
       <c r="AB5" t="n">
-        <v>1469.456293516011</v>
+        <v>1581.073366892094</v>
       </c>
       <c r="AC5" t="n">
-        <v>1329.213447257703</v>
+        <v>1430.177943806319</v>
       </c>
       <c r="AD5" t="n">
-        <v>1073972.309020371</v>
+        <v>1155549.179696111</v>
       </c>
       <c r="AE5" t="n">
-        <v>1469456.293516011</v>
+        <v>1581073.366892094</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.750831449630178e-06</v>
+        <v>2.6138349945818e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.70833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1329213.447257703</v>
+        <v>1430177.943806319</v>
       </c>
     </row>
     <row r="6">
@@ -45918,28 +45918,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1012.623074869431</v>
+        <v>1086.033813900691</v>
       </c>
       <c r="AB6" t="n">
-        <v>1385.515564813503</v>
+        <v>1485.959376609306</v>
       </c>
       <c r="AC6" t="n">
-        <v>1253.283903891009</v>
+        <v>1344.141499262797</v>
       </c>
       <c r="AD6" t="n">
-        <v>1012623.074869431</v>
+        <v>1086033.813900691</v>
       </c>
       <c r="AE6" t="n">
-        <v>1385515.564813503</v>
+        <v>1485959.376609306</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.799727694317228e-06</v>
+        <v>2.686832721172581e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.2</v>
       </c>
       <c r="AH6" t="n">
-        <v>1253283.90389101</v>
+        <v>1344141.499262797</v>
       </c>
     </row>
     <row r="7">
@@ -46024,28 +46024,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>956.5602332180245</v>
+        <v>1038.051763039193</v>
       </c>
       <c r="AB7" t="n">
-        <v>1308.807911548033</v>
+        <v>1420.308217801918</v>
       </c>
       <c r="AC7" t="n">
-        <v>1183.897121393328</v>
+        <v>1284.755994910006</v>
       </c>
       <c r="AD7" t="n">
-        <v>956560.2332180245</v>
+        <v>1038051.763039193</v>
       </c>
       <c r="AE7" t="n">
-        <v>1308807.911548032</v>
+        <v>1420308.217801918</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.834316677697135e-06</v>
+        <v>2.738470984355771e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.85625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1183897.121393329</v>
+        <v>1284755.994910006</v>
       </c>
     </row>
     <row r="8">
@@ -46130,28 +46130,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>919.4016064211307</v>
+        <v>992.8975967984114</v>
       </c>
       <c r="AB8" t="n">
-        <v>1257.965839041606</v>
+        <v>1358.526295490058</v>
       </c>
       <c r="AC8" t="n">
-        <v>1137.907344929618</v>
+        <v>1228.870452552118</v>
       </c>
       <c r="AD8" t="n">
-        <v>919401.6064211307</v>
+        <v>992897.5967984115</v>
       </c>
       <c r="AE8" t="n">
-        <v>1257965.839041606</v>
+        <v>1358526.295490058</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.857271184849254e-06</v>
+        <v>2.77274001355916e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.63541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1137907.344929618</v>
+        <v>1228870.452552118</v>
       </c>
     </row>
     <row r="9">
@@ -46236,28 +46236,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>893.2212303453581</v>
+        <v>966.7172207226389</v>
       </c>
       <c r="AB9" t="n">
-        <v>1222.144693498057</v>
+        <v>1322.705149946509</v>
       </c>
       <c r="AC9" t="n">
-        <v>1105.504919241452</v>
+        <v>1196.468026863951</v>
       </c>
       <c r="AD9" t="n">
-        <v>893221.2303453581</v>
+        <v>966717.2207226389</v>
       </c>
       <c r="AE9" t="n">
-        <v>1222144.693498057</v>
+        <v>1322705.149946509</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.870792332897763e-06</v>
+        <v>2.792925880076224e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.50833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1105504.919241452</v>
+        <v>1196468.026863951</v>
       </c>
     </row>
     <row r="10">
@@ -46342,28 +46342,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>890.9424506610054</v>
+        <v>964.2678488376939</v>
       </c>
       <c r="AB10" t="n">
-        <v>1219.026766601261</v>
+        <v>1319.353811274867</v>
       </c>
       <c r="AC10" t="n">
-        <v>1102.684562911648</v>
+        <v>1193.436535251497</v>
       </c>
       <c r="AD10" t="n">
-        <v>890942.4506610055</v>
+        <v>964267.8488376939</v>
       </c>
       <c r="AE10" t="n">
-        <v>1219026.766601261</v>
+        <v>1319353.811274867</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.8739367859323e-06</v>
+        <v>2.797620267638333e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.47916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1102684.562911648</v>
+        <v>1193436.535251497</v>
       </c>
     </row>
     <row r="11">
@@ -46448,28 +46448,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>894.953035781583</v>
+        <v>968.2784339582716</v>
       </c>
       <c r="AB11" t="n">
-        <v>1224.514226097763</v>
+        <v>1324.841270771369</v>
       </c>
       <c r="AC11" t="n">
-        <v>1107.648306975502</v>
+        <v>1198.400279315351</v>
       </c>
       <c r="AD11" t="n">
-        <v>894953.0357815831</v>
+        <v>968278.4339582716</v>
       </c>
       <c r="AE11" t="n">
-        <v>1224514.226097763</v>
+        <v>1324841.270771369</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.8739367859323e-06</v>
+        <v>2.797620267638333e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.47916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1107648.306975503</v>
+        <v>1198400.279315351</v>
       </c>
     </row>
   </sheetData>
